--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1212000.281931276</v>
+        <v>1210176.102932894</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.7908767213873</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>285.3299268289143</v>
@@ -1376,19 +1376,19 @@
         <v>274.7400766785897</v>
       </c>
       <c r="E11" t="n">
-        <v>301.9874051301686</v>
+        <v>301.9874051301685</v>
       </c>
       <c r="F11" t="n">
-        <v>326.9330807996182</v>
+        <v>287.5672748108634</v>
       </c>
       <c r="G11" t="n">
-        <v>332.6429865804662</v>
+        <v>332.6429865804661</v>
       </c>
       <c r="H11" t="n">
         <v>231.7085526272086</v>
       </c>
       <c r="I11" t="n">
-        <v>25.79403264954021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.2601539395383</v>
+        <v>131.2601539395382</v>
       </c>
       <c r="U11" t="n">
-        <v>171.1853450863372</v>
+        <v>171.1853450863371</v>
       </c>
       <c r="V11" t="n">
-        <v>149.1565819436778</v>
+        <v>247.8092935280416</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.2980037753197</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H12" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I12" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370205</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S12" t="n">
         <v>144.683027860524</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.88901523984406</v>
+        <v>99.889015239844</v>
       </c>
       <c r="C13" t="n">
-        <v>87.30385615653459</v>
+        <v>87.30385615653454</v>
       </c>
       <c r="D13" t="n">
-        <v>68.67250807611912</v>
+        <v>68.67250807611906</v>
       </c>
       <c r="E13" t="n">
-        <v>66.49099770447593</v>
+        <v>66.49099770447587</v>
       </c>
       <c r="F13" t="n">
-        <v>65.478083080838</v>
+        <v>65.47808308083795</v>
       </c>
       <c r="G13" t="n">
-        <v>86.82935774879418</v>
+        <v>86.82935774879414</v>
       </c>
       <c r="H13" t="n">
-        <v>71.44924192093943</v>
+        <v>71.44924192093939</v>
       </c>
       <c r="I13" t="n">
-        <v>38.85918038220183</v>
+        <v>38.85918038220179</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.55519118227819</v>
+        <v>42.55519118227816</v>
       </c>
       <c r="S13" t="n">
         <v>122.8357709882041</v>
@@ -1585,16 +1585,16 @@
         <v>206.3095922325301</v>
       </c>
       <c r="V13" t="n">
-        <v>153.1946397302025</v>
+        <v>172.1946783817347</v>
       </c>
       <c r="W13" t="n">
-        <v>206.5800333944978</v>
+        <v>187.579994742967</v>
       </c>
       <c r="X13" t="n">
         <v>145.7666904469439</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.6416884100016</v>
+        <v>138.6416884100015</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.7908767213873</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>285.3299268289143</v>
@@ -1613,19 +1613,19 @@
         <v>274.7400766785897</v>
       </c>
       <c r="E14" t="n">
-        <v>301.9874051301686</v>
+        <v>301.9874051301685</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>332.6429865804662</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>231.7085526272086</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.79403264954018</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.2601539395383</v>
+        <v>131.2601539395382</v>
       </c>
       <c r="U14" t="n">
-        <v>76.98593102883743</v>
+        <v>171.1853450863371</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>246.1424128194946</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.2980037753197</v>
       </c>
       <c r="X14" t="n">
         <v>289.7881357363758</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.2949737139604</v>
+        <v>306.2949737139603</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H15" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I15" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.906587930128282</v>
+        <v>9.906587930128225</v>
       </c>
       <c r="S15" t="n">
         <v>144.683027860524</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.88901523984406</v>
+        <v>99.889015239844</v>
       </c>
       <c r="C16" t="n">
-        <v>68.30381750500187</v>
+        <v>87.30385615653454</v>
       </c>
       <c r="D16" t="n">
-        <v>68.67250807611912</v>
+        <v>68.67250807611906</v>
       </c>
       <c r="E16" t="n">
-        <v>66.49099770447593</v>
+        <v>66.49099770447587</v>
       </c>
       <c r="F16" t="n">
-        <v>65.478083080838</v>
+        <v>46.47804442930716</v>
       </c>
       <c r="G16" t="n">
-        <v>86.82935774879418</v>
+        <v>86.82935774879412</v>
       </c>
       <c r="H16" t="n">
-        <v>71.44924192093943</v>
+        <v>71.44924192093937</v>
       </c>
       <c r="I16" t="n">
-        <v>38.85918038220183</v>
+        <v>38.85918038220179</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.55519118227819</v>
+        <v>42.55519118227816</v>
       </c>
       <c r="S16" t="n">
         <v>122.8357709882041</v>
@@ -1822,16 +1822,16 @@
         <v>206.3095922325301</v>
       </c>
       <c r="V16" t="n">
-        <v>172.1946783817348</v>
+        <v>172.1946783817347</v>
       </c>
       <c r="W16" t="n">
-        <v>206.5800333944978</v>
+        <v>206.5800333944977</v>
       </c>
       <c r="X16" t="n">
         <v>145.7666904469439</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.6416884100016</v>
+        <v>138.6416884100015</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>262.7974909129253</v>
       </c>
       <c r="C17" t="n">
         <v>245.3365410204523</v>
       </c>
       <c r="D17" t="n">
-        <v>234.7466908701277</v>
+        <v>76.18565118093908</v>
       </c>
       <c r="E17" t="n">
         <v>261.9940193217065</v>
       </c>
       <c r="F17" t="n">
-        <v>131.4114092536097</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>292.6496007720041</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>27.17495802987261</v>
       </c>
       <c r="T17" t="n">
-        <v>91.26676813107619</v>
+        <v>91.2667681310762</v>
       </c>
       <c r="U17" t="n">
         <v>131.1919592778751</v>
@@ -1938,10 +1938,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H18" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I18" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.89562943138276</v>
+        <v>59.89562943138201</v>
       </c>
       <c r="C19" t="n">
         <v>47.31047034807254</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.561805373816142</v>
+        <v>2.561805373816163</v>
       </c>
       <c r="S19" t="n">
         <v>82.84238517974211</v>
@@ -2084,7 +2084,7 @@
         <v>245.3365410204523</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>234.7466908701277</v>
       </c>
       <c r="E20" t="n">
         <v>261.9940193217065</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.17495802987259</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>91.26676813107619</v>
+        <v>91.2667681310762</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>131.1919592778752</v>
       </c>
       <c r="V20" t="n">
-        <v>128.2538231872371</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>229.3046179668577</v>
+        <v>18.79474903596484</v>
       </c>
       <c r="X20" t="n">
         <v>249.7947499279138</v>
@@ -2175,10 +2175,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H21" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I21" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.906587930128225</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S21" t="n">
         <v>144.683027860524</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.561805373816142</v>
+        <v>2.561805373816163</v>
       </c>
       <c r="S22" t="n">
         <v>82.84238517974211</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.1749580298726</v>
+        <v>27.17495802987263</v>
       </c>
       <c r="T23" t="n">
         <v>91.2667681310762</v>
@@ -2412,10 +2412,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H24" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I24" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S24" t="n">
         <v>144.683027860524</v>
@@ -2491,7 +2491,7 @@
         <v>46.83597194033214</v>
       </c>
       <c r="H25" t="n">
-        <v>31.45585611247738</v>
+        <v>31.45585611247752</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.561805373816142</v>
+        <v>2.561805373816163</v>
       </c>
       <c r="S25" t="n">
         <v>82.84238517974211</v>
@@ -2539,7 +2539,7 @@
         <v>166.5866475860357</v>
       </c>
       <c r="X25" t="n">
-        <v>105.7733046384825</v>
+        <v>105.7733046384819</v>
       </c>
       <c r="Y25" t="n">
         <v>98.6483026015395</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.9939219777743</v>
+        <v>301.9939219777742</v>
       </c>
       <c r="C26" t="n">
-        <v>284.5329720853013</v>
+        <v>284.5329720853011</v>
       </c>
       <c r="D26" t="n">
-        <v>273.9431219349767</v>
+        <v>273.9431219349766</v>
       </c>
       <c r="E26" t="n">
-        <v>301.1904503865555</v>
+        <v>301.1904503865554</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1361260560052</v>
+        <v>326.1361260560051</v>
       </c>
       <c r="G26" t="n">
-        <v>331.8460318368532</v>
+        <v>331.8460318368531</v>
       </c>
       <c r="H26" t="n">
-        <v>230.9115978835956</v>
+        <v>230.9115978835955</v>
       </c>
       <c r="I26" t="n">
-        <v>24.99707790592723</v>
+        <v>24.9970779059271</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.37138909472168</v>
+        <v>66.37138909472152</v>
       </c>
       <c r="T26" t="n">
-        <v>130.4631991959253</v>
+        <v>130.4631991959251</v>
       </c>
       <c r="U26" t="n">
-        <v>170.3883903427242</v>
+        <v>170.3883903427241</v>
       </c>
       <c r="V26" t="n">
-        <v>247.0123387844287</v>
+        <v>247.0123387844285</v>
       </c>
       <c r="W26" t="n">
-        <v>268.5010490317068</v>
+        <v>268.5010490317067</v>
       </c>
       <c r="X26" t="n">
-        <v>288.9911809927628</v>
+        <v>288.9911809927627</v>
       </c>
       <c r="Y26" t="n">
-        <v>305.4980189703473</v>
+        <v>305.4980189703472</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H27" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I27" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S27" t="n">
         <v>144.683027860524</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.09206049623107</v>
+        <v>99.09206049623091</v>
       </c>
       <c r="C28" t="n">
-        <v>86.50690141292161</v>
+        <v>86.50690141292145</v>
       </c>
       <c r="D28" t="n">
-        <v>67.87555333250613</v>
+        <v>67.87555333250597</v>
       </c>
       <c r="E28" t="n">
-        <v>65.69404296086294</v>
+        <v>65.69404296086279</v>
       </c>
       <c r="F28" t="n">
-        <v>64.68112833722502</v>
+        <v>64.68112833722486</v>
       </c>
       <c r="G28" t="n">
-        <v>86.03240300518119</v>
+        <v>86.03240300518104</v>
       </c>
       <c r="H28" t="n">
-        <v>70.65228717732644</v>
+        <v>70.65228717732629</v>
       </c>
       <c r="I28" t="n">
-        <v>38.06222563858884</v>
+        <v>38.0622256385887</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75823643866521</v>
+        <v>41.75823643866507</v>
       </c>
       <c r="S28" t="n">
-        <v>122.0388162445911</v>
+        <v>122.038816244591</v>
       </c>
       <c r="T28" t="n">
-        <v>141.9986821629523</v>
+        <v>141.9986821629522</v>
       </c>
       <c r="U28" t="n">
-        <v>205.5126374889171</v>
+        <v>205.512637488917</v>
       </c>
       <c r="V28" t="n">
-        <v>171.3977236381197</v>
+        <v>171.3977236381216</v>
       </c>
       <c r="W28" t="n">
-        <v>205.7830786508848</v>
+        <v>205.7830786508846</v>
       </c>
       <c r="X28" t="n">
         <v>144.9697357033309</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.8447336663885</v>
+        <v>137.8447336663884</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.9939219777743</v>
+        <v>301.9939219777742</v>
       </c>
       <c r="C29" t="n">
-        <v>284.5329720853013</v>
+        <v>284.5329720853011</v>
       </c>
       <c r="D29" t="n">
-        <v>273.9431219349767</v>
+        <v>273.9431219349766</v>
       </c>
       <c r="E29" t="n">
-        <v>301.1904503865555</v>
+        <v>301.1904503865554</v>
       </c>
       <c r="F29" t="n">
         <v>326.1361260560051</v>
@@ -2807,10 +2807,10 @@
         <v>331.8460318368531</v>
       </c>
       <c r="H29" t="n">
-        <v>230.9115978835956</v>
+        <v>230.9115978835955</v>
       </c>
       <c r="I29" t="n">
-        <v>24.99707790592714</v>
+        <v>24.9970779059271</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.37138909472156</v>
+        <v>66.37138909472152</v>
       </c>
       <c r="T29" t="n">
-        <v>130.4631991959252</v>
+        <v>130.4631991959251</v>
       </c>
       <c r="U29" t="n">
         <v>170.3883903427241</v>
       </c>
       <c r="V29" t="n">
-        <v>247.0123387844286</v>
+        <v>247.0123387844285</v>
       </c>
       <c r="W29" t="n">
         <v>268.5010490317067</v>
@@ -2858,7 +2858,7 @@
         <v>288.9911809927627</v>
       </c>
       <c r="Y29" t="n">
-        <v>305.4980189703473</v>
+        <v>305.4980189703472</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H30" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I30" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S30" t="n">
         <v>144.683027860524</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.09206049623099</v>
+        <v>99.09206049623091</v>
       </c>
       <c r="C31" t="n">
-        <v>86.50690141292152</v>
+        <v>86.50690141292145</v>
       </c>
       <c r="D31" t="n">
-        <v>67.87555333250604</v>
+        <v>67.87555333250597</v>
       </c>
       <c r="E31" t="n">
-        <v>65.69404296086286</v>
+        <v>65.69404296086279</v>
       </c>
       <c r="F31" t="n">
-        <v>64.68112833722493</v>
+        <v>64.68112833722486</v>
       </c>
       <c r="G31" t="n">
-        <v>86.03240300518111</v>
+        <v>86.03240300518104</v>
       </c>
       <c r="H31" t="n">
-        <v>70.65228717732636</v>
+        <v>70.65228717732629</v>
       </c>
       <c r="I31" t="n">
-        <v>38.06222563858876</v>
+        <v>38.0622256385887</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.75823643866512</v>
+        <v>41.75823643866507</v>
       </c>
       <c r="S31" t="n">
-        <v>122.0388162445911</v>
+        <v>122.038816244591</v>
       </c>
       <c r="T31" t="n">
-        <v>141.9986821629523</v>
+        <v>141.9986821629522</v>
       </c>
       <c r="U31" t="n">
-        <v>205.5126374889171</v>
+        <v>205.512637488917</v>
       </c>
       <c r="V31" t="n">
-        <v>171.3977236381217</v>
+        <v>171.3977236381216</v>
       </c>
       <c r="W31" t="n">
-        <v>205.7830786508847</v>
+        <v>205.7830786508846</v>
       </c>
       <c r="X31" t="n">
-        <v>144.9697357033309</v>
+        <v>144.9697357033308</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.8447336663885</v>
+        <v>137.8447336663884</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>230.9115978835955</v>
       </c>
       <c r="I32" t="n">
-        <v>24.9970779059271</v>
+        <v>24.99707790592713</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.37138909472154</v>
+        <v>66.37138909472155</v>
       </c>
       <c r="T32" t="n">
         <v>130.4631991959251</v>
@@ -3123,10 +3123,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H33" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I33" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S33" t="n">
         <v>144.683027860524</v>
@@ -3199,13 +3199,13 @@
         <v>64.68112833722489</v>
       </c>
       <c r="G34" t="n">
-        <v>86.03240300518107</v>
+        <v>86.03240300518108</v>
       </c>
       <c r="H34" t="n">
         <v>70.65228717732631</v>
       </c>
       <c r="I34" t="n">
-        <v>38.06222563858871</v>
+        <v>38.06222563858873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75823643866508</v>
+        <v>41.7582364386651</v>
       </c>
       <c r="S34" t="n">
         <v>122.038816244591</v>
@@ -3284,7 +3284,7 @@
         <v>230.9115978835954</v>
       </c>
       <c r="I35" t="n">
-        <v>24.99707790592703</v>
+        <v>24.99707790592706</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.37138909472147</v>
+        <v>66.37138909472149</v>
       </c>
       <c r="T35" t="n">
         <v>130.4631991959251</v>
@@ -3360,10 +3360,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H36" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I36" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S36" t="n">
         <v>144.683027860524</v>
@@ -3439,10 +3439,10 @@
         <v>86.03240300518101</v>
       </c>
       <c r="H37" t="n">
-        <v>70.65228717732624</v>
+        <v>70.65228717732626</v>
       </c>
       <c r="I37" t="n">
-        <v>38.06222563858864</v>
+        <v>38.06222563858866</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75823643866501</v>
+        <v>41.75823643866503</v>
       </c>
       <c r="S37" t="n">
         <v>122.038816244591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.9939219777742</v>
+        <v>301.9939219777741</v>
       </c>
       <c r="C38" t="n">
         <v>284.5329720853011</v>
@@ -3509,19 +3509,19 @@
         <v>273.9431219349765</v>
       </c>
       <c r="E38" t="n">
-        <v>301.1904503865554</v>
+        <v>301.1904503865553</v>
       </c>
       <c r="F38" t="n">
         <v>326.136126056005</v>
       </c>
       <c r="G38" t="n">
-        <v>331.846031836853</v>
+        <v>331.8460318368529</v>
       </c>
       <c r="H38" t="n">
         <v>230.9115978835954</v>
       </c>
       <c r="I38" t="n">
-        <v>24.99707790592703</v>
+        <v>24.997077905927</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.37138909472147</v>
+        <v>66.37138909472144</v>
       </c>
       <c r="T38" t="n">
-        <v>130.4631991959251</v>
+        <v>130.463199195925</v>
       </c>
       <c r="U38" t="n">
-        <v>170.388390342724</v>
+        <v>170.3883903427239</v>
       </c>
       <c r="V38" t="n">
-        <v>247.0123387844285</v>
+        <v>247.0123387844284</v>
       </c>
       <c r="W38" t="n">
-        <v>268.5010490317066</v>
+        <v>268.5010490317065</v>
       </c>
       <c r="X38" t="n">
         <v>288.9911809927626</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.4980189703472</v>
+        <v>305.4980189703471</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H39" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I39" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S39" t="n">
         <v>144.683027860524</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.09206049623087</v>
+        <v>99.09206049623081</v>
       </c>
       <c r="C40" t="n">
-        <v>86.50690141292141</v>
+        <v>86.50690141292135</v>
       </c>
       <c r="D40" t="n">
-        <v>67.87555333250593</v>
+        <v>67.87555333250587</v>
       </c>
       <c r="E40" t="n">
-        <v>65.69404296086275</v>
+        <v>65.69404296086269</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68112833722482</v>
+        <v>64.68112833722476</v>
       </c>
       <c r="G40" t="n">
-        <v>86.03240300518101</v>
+        <v>86.03240300518095</v>
       </c>
       <c r="H40" t="n">
-        <v>70.65228717732624</v>
+        <v>70.6522871773262</v>
       </c>
       <c r="I40" t="n">
-        <v>38.06222563858864</v>
+        <v>38.0622256385886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75823643866501</v>
+        <v>41.75823643866497</v>
       </c>
       <c r="S40" t="n">
-        <v>122.038816244591</v>
+        <v>122.0388162445909</v>
       </c>
       <c r="T40" t="n">
-        <v>141.9986821629522</v>
+        <v>141.9986821629521</v>
       </c>
       <c r="U40" t="n">
         <v>205.5126374889169</v>
       </c>
       <c r="V40" t="n">
-        <v>171.3977236381216</v>
+        <v>171.3977236381215</v>
       </c>
       <c r="W40" t="n">
-        <v>205.7830786508846</v>
+        <v>205.7830786508845</v>
       </c>
       <c r="X40" t="n">
         <v>144.9697357033307</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.8447336663884</v>
+        <v>137.8447336663883</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.9939219777741</v>
+        <v>301.9939219777742</v>
       </c>
       <c r="C41" t="n">
         <v>284.5329720853011</v>
@@ -3746,19 +3746,19 @@
         <v>273.9431219349765</v>
       </c>
       <c r="E41" t="n">
-        <v>301.1904503865553</v>
+        <v>301.1904503865554</v>
       </c>
       <c r="F41" t="n">
         <v>326.136126056005</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8460318368529</v>
+        <v>331.846031836853</v>
       </c>
       <c r="H41" t="n">
-        <v>230.9115978835954</v>
+        <v>230.9115978835955</v>
       </c>
       <c r="I41" t="n">
-        <v>24.99707790592701</v>
+        <v>24.99707790592706</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.37138909472145</v>
+        <v>66.37138909472147</v>
       </c>
       <c r="T41" t="n">
         <v>130.4631991959251</v>
@@ -3800,7 +3800,7 @@
         <v>247.0123387844285</v>
       </c>
       <c r="W41" t="n">
-        <v>268.5010490317065</v>
+        <v>268.5010490317066</v>
       </c>
       <c r="X41" t="n">
         <v>288.9911809927626</v>
@@ -3834,10 +3834,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H42" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I42" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370236</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.906587930128282</v>
+        <v>9.90658793012831</v>
       </c>
       <c r="S42" t="n">
         <v>144.683027860524</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.09206049623086</v>
+        <v>99.09206049623087</v>
       </c>
       <c r="C43" t="n">
-        <v>86.50690141292139</v>
+        <v>86.50690141292141</v>
       </c>
       <c r="D43" t="n">
-        <v>67.87555333250592</v>
+        <v>67.87555333250593</v>
       </c>
       <c r="E43" t="n">
-        <v>65.69404296086273</v>
+        <v>65.69404296086275</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68112833722481</v>
+        <v>64.68112833722482</v>
       </c>
       <c r="G43" t="n">
-        <v>86.032403005181</v>
+        <v>86.03240300518101</v>
       </c>
       <c r="H43" t="n">
-        <v>70.65228717732623</v>
+        <v>70.65228717732626</v>
       </c>
       <c r="I43" t="n">
-        <v>38.06222563858863</v>
+        <v>38.06222563858866</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75823643866499</v>
+        <v>41.75823643866503</v>
       </c>
       <c r="S43" t="n">
-        <v>122.0388162445909</v>
+        <v>122.038816244591</v>
       </c>
       <c r="T43" t="n">
-        <v>141.9986821629521</v>
+        <v>141.9986821629522</v>
       </c>
       <c r="U43" t="n">
         <v>205.5126374889169</v>
@@ -3977,25 +3977,25 @@
         <v>301.9939219777742</v>
       </c>
       <c r="C44" t="n">
-        <v>284.5329720853012</v>
+        <v>284.5329720853011</v>
       </c>
       <c r="D44" t="n">
-        <v>273.9431219349766</v>
+        <v>273.9431219349765</v>
       </c>
       <c r="E44" t="n">
         <v>301.1904503865554</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1361260560051</v>
+        <v>326.136126056005</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8460318368531</v>
+        <v>331.846031836853</v>
       </c>
       <c r="H44" t="n">
-        <v>230.9115978835955</v>
+        <v>230.9115978835954</v>
       </c>
       <c r="I44" t="n">
-        <v>24.99707790592709</v>
+        <v>24.9970779059271</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.37138909472151</v>
+        <v>66.37138909472149</v>
       </c>
       <c r="T44" t="n">
         <v>130.4631991959251</v>
       </c>
       <c r="U44" t="n">
-        <v>170.3883903427241</v>
+        <v>170.388390342724</v>
       </c>
       <c r="V44" t="n">
-        <v>247.0123387844286</v>
+        <v>247.0123387844285</v>
       </c>
       <c r="W44" t="n">
-        <v>268.5010490317067</v>
+        <v>268.5010490317066</v>
       </c>
       <c r="X44" t="n">
-        <v>288.9911809927627</v>
+        <v>288.9911809927615</v>
       </c>
       <c r="Y44" t="n">
         <v>305.4980189703472</v>
@@ -4071,10 +4071,10 @@
         <v>135.8899085069</v>
       </c>
       <c r="H45" t="n">
-        <v>98.19664484528583</v>
+        <v>98.19664484528585</v>
       </c>
       <c r="I45" t="n">
-        <v>39.34914183370235</v>
+        <v>39.34914183370238</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.906587930128282</v>
+        <v>9.906587930128339</v>
       </c>
       <c r="S45" t="n">
         <v>144.683027860524</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.09206049623093</v>
+        <v>99.09206049623087</v>
       </c>
       <c r="C46" t="n">
-        <v>86.50690141292147</v>
+        <v>86.50690141292141</v>
       </c>
       <c r="D46" t="n">
-        <v>67.87555333250599</v>
+        <v>67.87555333250593</v>
       </c>
       <c r="E46" t="n">
-        <v>65.6940429608628</v>
+        <v>65.69404296086275</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68112833722488</v>
+        <v>64.68112833722482</v>
       </c>
       <c r="G46" t="n">
-        <v>86.03240300518105</v>
+        <v>86.032403005181</v>
       </c>
       <c r="H46" t="n">
-        <v>70.6522871773263</v>
+        <v>70.65228717732624</v>
       </c>
       <c r="I46" t="n">
-        <v>38.0622256385887</v>
+        <v>38.06222563858867</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75823643866507</v>
+        <v>41.75823643866504</v>
       </c>
       <c r="S46" t="n">
         <v>122.038816244591</v>
@@ -4189,7 +4189,7 @@
         <v>141.9986821629522</v>
       </c>
       <c r="U46" t="n">
-        <v>205.512637488917</v>
+        <v>205.5126374889169</v>
       </c>
       <c r="V46" t="n">
         <v>171.3977236381216</v>
@@ -4198,7 +4198,7 @@
         <v>205.7830786508846</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9697357033308</v>
+        <v>144.9697357033307</v>
       </c>
       <c r="Y46" t="n">
         <v>137.8447336663884</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1849.334075910456</v>
+        <v>1783.516057083895</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.122028608523</v>
+        <v>1495.304009781961</v>
       </c>
       <c r="D11" t="n">
-        <v>1283.60679964025</v>
+        <v>1217.788780813689</v>
       </c>
       <c r="E11" t="n">
-        <v>978.5690166804841</v>
+        <v>912.7509978539231</v>
       </c>
       <c r="F11" t="n">
-        <v>648.3335815293544</v>
+        <v>622.2790030954752</v>
       </c>
       <c r="G11" t="n">
-        <v>312.3305647814088</v>
+        <v>286.2759863475298</v>
       </c>
       <c r="H11" t="n">
-        <v>78.28152172362229</v>
+        <v>52.22694328974329</v>
       </c>
       <c r="I11" t="n">
         <v>52.22694328974329</v>
@@ -5042,19 +5042,19 @@
         <v>268.6751238146701</v>
       </c>
       <c r="K11" t="n">
-        <v>713.8196422666554</v>
+        <v>392.9156838212022</v>
       </c>
       <c r="L11" t="n">
-        <v>904.8528049145148</v>
+        <v>583.9488464690614</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.083443954174</v>
+        <v>1230.257269679635</v>
       </c>
       <c r="N11" t="n">
-        <v>1401.8797984476</v>
+        <v>1876.565692890208</v>
       </c>
       <c r="O11" t="n">
-        <v>1833.777653534268</v>
+        <v>2101.938860730251</v>
       </c>
       <c r="P11" t="n">
         <v>2310.208158324038</v>
@@ -5075,16 +5075,16 @@
         <v>2305.846660420624</v>
       </c>
       <c r="V11" t="n">
-        <v>2155.1834463361</v>
+        <v>2055.534242715531</v>
       </c>
       <c r="W11" t="n">
-        <v>2155.1834463361</v>
+        <v>1783.516057083895</v>
       </c>
       <c r="X11" t="n">
-        <v>2155.1834463361</v>
+        <v>1783.516057083895</v>
       </c>
       <c r="Y11" t="n">
-        <v>2155.1834463361</v>
+        <v>1783.516057083895</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5100,40 @@
         <v>783.1310378345023</v>
       </c>
       <c r="D12" t="n">
-        <v>634.1966281732509</v>
+        <v>634.196628173251</v>
       </c>
       <c r="E12" t="n">
-        <v>474.9591731677954</v>
+        <v>474.9591731677955</v>
       </c>
       <c r="F12" t="n">
-        <v>328.4246151946804</v>
+        <v>328.4246151946805</v>
       </c>
       <c r="G12" t="n">
-        <v>191.1620813493273</v>
+        <v>191.162081349327</v>
       </c>
       <c r="H12" t="n">
-        <v>91.97355120257394</v>
+        <v>91.97355120257365</v>
       </c>
       <c r="I12" t="n">
         <v>52.22694328974329</v>
       </c>
       <c r="J12" t="n">
-        <v>187.448617108904</v>
+        <v>187.4486171089039</v>
       </c>
       <c r="K12" t="n">
-        <v>283.3642539295291</v>
+        <v>545.1848385719818</v>
       </c>
       <c r="L12" t="n">
-        <v>734.3868690164021</v>
+        <v>1087.609732007662</v>
       </c>
       <c r="M12" t="n">
-        <v>1380.695292226975</v>
+        <v>1455.3408473574</v>
       </c>
       <c r="N12" t="n">
-        <v>1624.945788112979</v>
+        <v>1699.591343243403</v>
       </c>
       <c r="O12" t="n">
-        <v>2216.091174526302</v>
+        <v>1900.813033572764</v>
       </c>
       <c r="P12" t="n">
         <v>2358.256254789922</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.209998915908</v>
+        <v>542.2099989159078</v>
       </c>
       <c r="C13" t="n">
-        <v>454.0242856264791</v>
+        <v>454.024285626479</v>
       </c>
       <c r="D13" t="n">
-        <v>384.6581158526214</v>
+        <v>384.6581158526213</v>
       </c>
       <c r="E13" t="n">
-        <v>317.4954919087064</v>
+        <v>317.4954919087063</v>
       </c>
       <c r="F13" t="n">
-        <v>251.3560140492741</v>
+        <v>251.356014049274</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6495920807951</v>
+        <v>163.6495920807949</v>
       </c>
       <c r="H13" t="n">
-        <v>91.47864064550271</v>
+        <v>91.47864064550268</v>
       </c>
       <c r="I13" t="n">
         <v>52.22694328974329</v>
@@ -5200,19 +5200,19 @@
         <v>124.2423264002295</v>
       </c>
       <c r="K13" t="n">
-        <v>321.5089546893319</v>
+        <v>321.5089546893317</v>
       </c>
       <c r="L13" t="n">
-        <v>607.3358152628707</v>
+        <v>607.3358152628705</v>
       </c>
       <c r="M13" t="n">
-        <v>914.7870610181565</v>
+        <v>914.7870610181567</v>
       </c>
       <c r="N13" t="n">
         <v>1222.244276133319</v>
       </c>
       <c r="O13" t="n">
-        <v>1496.256152867481</v>
+        <v>1496.256152867482</v>
       </c>
       <c r="P13" t="n">
         <v>1718.622536580719</v>
@@ -5233,16 +5233,16 @@
         <v>1293.797945604282</v>
       </c>
       <c r="V13" t="n">
-        <v>1139.055885270744</v>
+        <v>1119.863927036874</v>
       </c>
       <c r="W13" t="n">
-        <v>930.389184872261</v>
+        <v>930.3891848722608</v>
       </c>
       <c r="X13" t="n">
-        <v>783.1501036127218</v>
+        <v>783.1501036127215</v>
       </c>
       <c r="Y13" t="n">
-        <v>643.1079941076697</v>
+        <v>643.1079941076695</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1493.044062325448</v>
+        <v>1183.095624011381</v>
       </c>
       <c r="C14" t="n">
-        <v>1204.832015023514</v>
+        <v>894.8835767094477</v>
       </c>
       <c r="D14" t="n">
-        <v>927.3167860552421</v>
+        <v>617.3683477411753</v>
       </c>
       <c r="E14" t="n">
-        <v>622.2790030954754</v>
+        <v>312.330564781409</v>
       </c>
       <c r="F14" t="n">
-        <v>622.2790030954754</v>
+        <v>312.330564781409</v>
       </c>
       <c r="G14" t="n">
-        <v>286.2759863475298</v>
+        <v>312.330564781409</v>
       </c>
       <c r="H14" t="n">
-        <v>52.22694328974329</v>
+        <v>78.28152172362252</v>
       </c>
       <c r="I14" t="n">
         <v>52.22694328974329</v>
       </c>
       <c r="J14" t="n">
-        <v>101.2694747943171</v>
+        <v>268.6751238146701</v>
       </c>
       <c r="K14" t="n">
-        <v>543.3521500631621</v>
+        <v>713.8196422666551</v>
       </c>
       <c r="L14" t="n">
-        <v>734.3853127110216</v>
+        <v>904.8528049145145</v>
       </c>
       <c r="M14" t="n">
-        <v>978.6159517506808</v>
+        <v>1149.083443954174</v>
       </c>
       <c r="N14" t="n">
-        <v>1231.412306244107</v>
+        <v>1401.879798447599</v>
       </c>
       <c r="O14" t="n">
-        <v>1833.777653534268</v>
+        <v>1854.358951797598</v>
       </c>
       <c r="P14" t="n">
-        <v>2310.208158324038</v>
+        <v>2330.789456587368</v>
       </c>
       <c r="Q14" t="n">
-        <v>2590.765866223834</v>
+        <v>2611.347164487164</v>
       </c>
       <c r="R14" t="n">
         <v>2611.347164487164</v>
@@ -5306,22 +5306,22 @@
         <v>2611.347164487164</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.761150406823</v>
+        <v>2478.761150406822</v>
       </c>
       <c r="U14" t="n">
-        <v>2400.997583711027</v>
+        <v>2305.846660420623</v>
       </c>
       <c r="V14" t="n">
-        <v>2400.997583711027</v>
+        <v>2057.217960602953</v>
       </c>
       <c r="W14" t="n">
-        <v>2400.997583711027</v>
+        <v>1785.199774971317</v>
       </c>
       <c r="X14" t="n">
-        <v>2108.282295088426</v>
+        <v>1492.484486348715</v>
       </c>
       <c r="Y14" t="n">
-        <v>1798.893432751092</v>
+        <v>1183.095624011381</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.5840671156293</v>
+        <v>957.5840671156296</v>
       </c>
       <c r="C15" t="n">
-        <v>783.1310378345023</v>
+        <v>783.1310378345026</v>
       </c>
       <c r="D15" t="n">
-        <v>634.1966281732509</v>
+        <v>634.1966281732514</v>
       </c>
       <c r="E15" t="n">
-        <v>474.9591731677954</v>
+        <v>474.9591731677959</v>
       </c>
       <c r="F15" t="n">
-        <v>328.4246151946804</v>
+        <v>328.4246151946809</v>
       </c>
       <c r="G15" t="n">
         <v>191.1620813493273</v>
       </c>
       <c r="H15" t="n">
-        <v>91.97355120257394</v>
+        <v>91.97355120257396</v>
       </c>
       <c r="I15" t="n">
         <v>52.22694328974329</v>
       </c>
       <c r="J15" t="n">
-        <v>187.448617108904</v>
+        <v>187.4486171089039</v>
       </c>
       <c r="K15" t="n">
-        <v>545.1848385719819</v>
+        <v>545.1848385719818</v>
       </c>
       <c r="L15" t="n">
         <v>1087.609732007662</v>
       </c>
       <c r="M15" t="n">
-        <v>1311.525206645543</v>
+        <v>1380.695292226975</v>
       </c>
       <c r="N15" t="n">
-        <v>1555.775702531547</v>
+        <v>1624.945788112979</v>
       </c>
       <c r="O15" t="n">
-        <v>1900.813033572764</v>
+        <v>2216.091174526302</v>
       </c>
       <c r="P15" t="n">
         <v>2358.256254789922</v>
@@ -5388,7 +5388,7 @@
         <v>2258.9276882</v>
       </c>
       <c r="U15" t="n">
-        <v>2030.800668066128</v>
+        <v>2030.800668066129</v>
       </c>
       <c r="V15" t="n">
         <v>1795.648559834386</v>
@@ -5400,7 +5400,7 @@
         <v>1333.559702900651</v>
       </c>
       <c r="Y15" t="n">
-        <v>1125.799404135697</v>
+        <v>1125.799404135698</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.0180406820367</v>
+        <v>523.0180406820381</v>
       </c>
       <c r="C16" t="n">
-        <v>454.0242856264793</v>
+        <v>434.8323273926092</v>
       </c>
       <c r="D16" t="n">
-        <v>384.6581158526216</v>
+        <v>365.4661576187516</v>
       </c>
       <c r="E16" t="n">
-        <v>317.4954919087065</v>
+        <v>298.3035336748367</v>
       </c>
       <c r="F16" t="n">
-        <v>251.3560140492741</v>
+        <v>251.3560140492739</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6495920807951</v>
+        <v>163.6495920807949</v>
       </c>
       <c r="H16" t="n">
-        <v>91.47864064550271</v>
+        <v>91.47864064550265</v>
       </c>
       <c r="I16" t="n">
         <v>52.22694328974329</v>
@@ -5437,19 +5437,19 @@
         <v>124.2423264002295</v>
       </c>
       <c r="K16" t="n">
-        <v>321.5089546893316</v>
+        <v>321.5089546893319</v>
       </c>
       <c r="L16" t="n">
-        <v>607.3358152628704</v>
+        <v>607.3358152628707</v>
       </c>
       <c r="M16" t="n">
-        <v>914.7870610181565</v>
+        <v>914.7870610181569</v>
       </c>
       <c r="N16" t="n">
         <v>1222.244276133319</v>
       </c>
       <c r="O16" t="n">
-        <v>1496.256152867481</v>
+        <v>1496.256152867482</v>
       </c>
       <c r="P16" t="n">
         <v>1718.622536580719</v>
@@ -5458,28 +5458,28 @@
         <v>1813.491068139209</v>
       </c>
       <c r="R16" t="n">
-        <v>1770.506026540948</v>
+        <v>1770.506026540949</v>
       </c>
       <c r="S16" t="n">
         <v>1646.429490189227</v>
       </c>
       <c r="T16" t="n">
-        <v>1502.191473111888</v>
+        <v>1502.191473111889</v>
       </c>
       <c r="U16" t="n">
         <v>1293.797945604282</v>
       </c>
       <c r="V16" t="n">
-        <v>1119.863927036873</v>
+        <v>1119.863927036874</v>
       </c>
       <c r="W16" t="n">
-        <v>911.1972266383898</v>
+        <v>911.197226638391</v>
       </c>
       <c r="X16" t="n">
-        <v>763.9581453788504</v>
+        <v>763.9581453788518</v>
       </c>
       <c r="Y16" t="n">
-        <v>623.9160358737984</v>
+        <v>623.9160358737997</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1423.796062538881</v>
+        <v>1130.894598960298</v>
       </c>
       <c r="C17" t="n">
-        <v>1175.981374639435</v>
+        <v>883.0799110608507</v>
       </c>
       <c r="D17" t="n">
-        <v>938.8635050736492</v>
+        <v>806.1247078477809</v>
       </c>
       <c r="E17" t="n">
-        <v>674.2230815163699</v>
+        <v>541.4842842905016</v>
       </c>
       <c r="F17" t="n">
-        <v>541.4842842905015</v>
+        <v>541.4842842905016</v>
       </c>
       <c r="G17" t="n">
         <v>245.8786269450429</v>
@@ -5513,25 +5513,25 @@
         <v>52.22694328974329</v>
       </c>
       <c r="J17" t="n">
-        <v>101.2694747943171</v>
+        <v>268.6751238146701</v>
       </c>
       <c r="K17" t="n">
-        <v>546.4139932463023</v>
+        <v>713.8196422666551</v>
       </c>
       <c r="L17" t="n">
-        <v>1150.931758299108</v>
+        <v>904.8528049145145</v>
       </c>
       <c r="M17" t="n">
-        <v>1395.162397338767</v>
+        <v>1149.083443954174</v>
       </c>
       <c r="N17" t="n">
-        <v>1647.958751832193</v>
+        <v>1401.879798447599</v>
       </c>
       <c r="O17" t="n">
-        <v>2250.324099122354</v>
+        <v>2004.245145737761</v>
       </c>
       <c r="P17" t="n">
-        <v>2408.173882822357</v>
+        <v>2480.675650527531</v>
       </c>
       <c r="Q17" t="n">
         <v>2611.347164487164</v>
@@ -5540,25 +5540,25 @@
         <v>2611.347164487164</v>
       </c>
       <c r="S17" t="n">
-        <v>2611.347164487164</v>
+        <v>2583.897711931737</v>
       </c>
       <c r="T17" t="n">
-        <v>2519.15850980931</v>
+        <v>2491.709057253883</v>
       </c>
       <c r="U17" t="n">
-        <v>2386.641379225598</v>
+        <v>2359.191926670171</v>
       </c>
       <c r="V17" t="n">
-        <v>2176.726320922992</v>
+        <v>2149.276868367565</v>
       </c>
       <c r="W17" t="n">
-        <v>1945.105494693843</v>
+        <v>1917.656042138416</v>
       </c>
       <c r="X17" t="n">
-        <v>1692.787565473728</v>
+        <v>1665.338112918301</v>
       </c>
       <c r="Y17" t="n">
-        <v>1423.796062538881</v>
+        <v>1396.346609983455</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>634.1966281732514</v>
       </c>
       <c r="E18" t="n">
-        <v>474.9591731677958</v>
+        <v>474.9591731677959</v>
       </c>
       <c r="F18" t="n">
-        <v>328.4246151946808</v>
+        <v>328.4246151946809</v>
       </c>
       <c r="G18" t="n">
         <v>191.1620813493273</v>
       </c>
       <c r="H18" t="n">
-        <v>91.97355120257394</v>
+        <v>91.97355120257396</v>
       </c>
       <c r="I18" t="n">
         <v>52.22694328974329</v>
       </c>
       <c r="J18" t="n">
-        <v>62.61849212189927</v>
+        <v>187.4486171089039</v>
       </c>
       <c r="K18" t="n">
-        <v>420.3547135849772</v>
+        <v>545.1848385719818</v>
       </c>
       <c r="L18" t="n">
-        <v>962.7796070206575</v>
+        <v>1087.609732007662</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.695081658539</v>
+        <v>1311.525206645543</v>
       </c>
       <c r="N18" t="n">
-        <v>1430.945577544542</v>
+        <v>1555.775702531546</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.090963957865</v>
+        <v>1900.813033572764</v>
       </c>
       <c r="P18" t="n">
-        <v>2479.534185175023</v>
+        <v>2358.256254789922</v>
       </c>
       <c r="Q18" t="n">
         <v>2611.347164487164</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.5741451452271</v>
+        <v>260.574145145227</v>
       </c>
       <c r="C19" t="n">
         <v>212.7857912582851</v>
       </c>
       <c r="D19" t="n">
-        <v>183.8169808869144</v>
+        <v>183.8169808869143</v>
       </c>
       <c r="E19" t="n">
-        <v>157.0517163454862</v>
+        <v>157.0517163454861</v>
       </c>
       <c r="F19" t="n">
-        <v>131.3095978885408</v>
+        <v>131.3095978885407</v>
       </c>
       <c r="G19" t="n">
         <v>84.00053532254873</v>
@@ -5677,13 +5677,13 @@
         <v>170.3500362861733</v>
       </c>
       <c r="L19" t="n">
-        <v>377.0333615670398</v>
+        <v>377.0333615670397</v>
       </c>
       <c r="M19" t="n">
-        <v>605.3410720296537</v>
+        <v>605.3410720296534</v>
       </c>
       <c r="N19" t="n">
-        <v>833.6547518521436</v>
+        <v>833.6547518521432</v>
       </c>
       <c r="O19" t="n">
         <v>1028.523093293634</v>
@@ -5698,25 +5698,25 @@
         <v>1184.883255784243</v>
       </c>
       <c r="S19" t="n">
-        <v>1101.204078835009</v>
+        <v>1101.204078835008</v>
       </c>
       <c r="T19" t="n">
-        <v>997.3634211601571</v>
+        <v>997.3634211601565</v>
       </c>
       <c r="U19" t="n">
-        <v>829.3672530550378</v>
+        <v>829.3672530550369</v>
       </c>
       <c r="V19" t="n">
-        <v>695.8305938901159</v>
+        <v>695.830593890115</v>
       </c>
       <c r="W19" t="n">
-        <v>527.5612528941202</v>
+        <v>527.5612528941193</v>
       </c>
       <c r="X19" t="n">
-        <v>420.7195310370678</v>
+        <v>420.719531037067</v>
       </c>
       <c r="Y19" t="n">
-        <v>321.0747809345027</v>
+        <v>321.0747809345018</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1343.77747149587</v>
+        <v>1580.895341061656</v>
       </c>
       <c r="C20" t="n">
-        <v>1095.962783596424</v>
+        <v>1333.080653162209</v>
       </c>
       <c r="D20" t="n">
         <v>1095.962783596424</v>
       </c>
       <c r="E20" t="n">
-        <v>831.3223600391447</v>
+        <v>831.3223600391443</v>
       </c>
       <c r="F20" t="n">
-        <v>541.484284290502</v>
+        <v>541.4842842905018</v>
       </c>
       <c r="G20" t="n">
         <v>245.8786269450429</v>
@@ -5753,19 +5753,19 @@
         <v>268.6751238146701</v>
       </c>
       <c r="K20" t="n">
-        <v>526.8322607961327</v>
+        <v>392.9156838212022</v>
       </c>
       <c r="L20" t="n">
-        <v>717.8654234439921</v>
+        <v>583.9488464690614</v>
       </c>
       <c r="M20" t="n">
-        <v>962.0960624836513</v>
+        <v>1230.257269679635</v>
       </c>
       <c r="N20" t="n">
-        <v>1608.404485694224</v>
+        <v>1876.565692890208</v>
       </c>
       <c r="O20" t="n">
-        <v>1833.777653534268</v>
+        <v>2101.938860730251</v>
       </c>
       <c r="P20" t="n">
         <v>2310.208158324038</v>
@@ -5777,25 +5777,25 @@
         <v>2611.347164487164</v>
       </c>
       <c r="S20" t="n">
-        <v>2583.897711931737</v>
+        <v>2611.347164487164</v>
       </c>
       <c r="T20" t="n">
-        <v>2491.709057253883</v>
+        <v>2519.15850980931</v>
       </c>
       <c r="U20" t="n">
-        <v>2491.709057253883</v>
+        <v>2386.641379225598</v>
       </c>
       <c r="V20" t="n">
-        <v>2362.159740903138</v>
+        <v>2386.641379225598</v>
       </c>
       <c r="W20" t="n">
-        <v>2130.538914673989</v>
+        <v>2367.656784239774</v>
       </c>
       <c r="X20" t="n">
-        <v>1878.220985453874</v>
+        <v>2115.33885501966</v>
       </c>
       <c r="Y20" t="n">
-        <v>1609.229482519027</v>
+        <v>1846.347352084813</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.5840671156296</v>
+        <v>957.5840671156293</v>
       </c>
       <c r="C21" t="n">
-        <v>783.1310378345026</v>
+        <v>783.1310378345023</v>
       </c>
       <c r="D21" t="n">
-        <v>634.1966281732514</v>
+        <v>634.1966281732509</v>
       </c>
       <c r="E21" t="n">
-        <v>474.9591731677958</v>
+        <v>474.9591731677954</v>
       </c>
       <c r="F21" t="n">
-        <v>328.4246151946808</v>
+        <v>328.4246151946804</v>
       </c>
       <c r="G21" t="n">
         <v>191.1620813493273</v>
       </c>
       <c r="H21" t="n">
-        <v>91.97355120257394</v>
+        <v>91.97355120257396</v>
       </c>
       <c r="I21" t="n">
         <v>52.22694328974329</v>
       </c>
       <c r="J21" t="n">
-        <v>187.448617108904</v>
+        <v>187.4486171089039</v>
       </c>
       <c r="K21" t="n">
-        <v>545.1848385719819</v>
+        <v>545.1848385719818</v>
       </c>
       <c r="L21" t="n">
         <v>1087.609732007662</v>
       </c>
       <c r="M21" t="n">
-        <v>1455.3408473574</v>
+        <v>1311.525206645543</v>
       </c>
       <c r="N21" t="n">
-        <v>1699.591343243403</v>
+        <v>1555.775702531546</v>
       </c>
       <c r="O21" t="n">
         <v>1900.813033572764</v>
@@ -5862,7 +5862,7 @@
         <v>2258.9276882</v>
       </c>
       <c r="U21" t="n">
-        <v>2030.800668066129</v>
+        <v>2030.800668066128</v>
       </c>
       <c r="V21" t="n">
         <v>1795.648559834386</v>
@@ -5874,7 +5874,7 @@
         <v>1333.559702900651</v>
       </c>
       <c r="Y21" t="n">
-        <v>1125.799404135698</v>
+        <v>1125.799404135697</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.5741451452274</v>
+        <v>260.5741451452272</v>
       </c>
       <c r="C22" t="n">
-        <v>212.7857912582854</v>
+        <v>212.7857912582852</v>
       </c>
       <c r="D22" t="n">
-        <v>183.8169808869146</v>
+        <v>183.8169808869145</v>
       </c>
       <c r="E22" t="n">
-        <v>157.0517163454865</v>
+        <v>157.0517163454863</v>
       </c>
       <c r="F22" t="n">
-        <v>131.309597888541</v>
+        <v>131.3095978885409</v>
       </c>
       <c r="G22" t="n">
-        <v>84.00053532254873</v>
+        <v>84.00053532254881</v>
       </c>
       <c r="H22" t="n">
-        <v>52.22694328974329</v>
+        <v>52.22694328974337</v>
       </c>
       <c r="I22" t="n">
-        <v>52.22694328974329</v>
+        <v>52.22694328974337</v>
       </c>
       <c r="J22" t="n">
         <v>52.22694328974329</v>
@@ -5914,13 +5914,13 @@
         <v>170.3500362861733</v>
       </c>
       <c r="L22" t="n">
-        <v>377.0333615670398</v>
+        <v>377.0333615670397</v>
       </c>
       <c r="M22" t="n">
-        <v>605.3410720296536</v>
+        <v>605.3410720296534</v>
       </c>
       <c r="N22" t="n">
-        <v>833.6547518521434</v>
+        <v>833.6547518521432</v>
       </c>
       <c r="O22" t="n">
         <v>1028.523093293634</v>
@@ -5938,22 +5938,22 @@
         <v>1101.204078835008</v>
       </c>
       <c r="T22" t="n">
-        <v>997.3634211601566</v>
+        <v>997.3634211601565</v>
       </c>
       <c r="U22" t="n">
-        <v>829.3672530550373</v>
+        <v>829.3672530550372</v>
       </c>
       <c r="V22" t="n">
-        <v>695.8305938901153</v>
+        <v>695.8305938901152</v>
       </c>
       <c r="W22" t="n">
-        <v>527.5612528941197</v>
+        <v>527.5612528941195</v>
       </c>
       <c r="X22" t="n">
         <v>420.7195310370672</v>
       </c>
       <c r="Y22" t="n">
-        <v>321.0747809345021</v>
+        <v>321.074780934502</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.07902967597</v>
+        <v>1590.079029675969</v>
       </c>
       <c r="C23" t="n">
-        <v>1342.264341776523</v>
+        <v>1342.264341776522</v>
       </c>
       <c r="D23" t="n">
-        <v>1105.146472210738</v>
+        <v>1105.146472210737</v>
       </c>
       <c r="E23" t="n">
-        <v>840.5060486534582</v>
+        <v>840.5060486534576</v>
       </c>
       <c r="F23" t="n">
-        <v>550.6679729048155</v>
+        <v>550.6679729048151</v>
       </c>
       <c r="G23" t="n">
         <v>255.0623155593563</v>
@@ -5987,28 +5987,28 @@
         <v>61.41063190405674</v>
       </c>
       <c r="J23" t="n">
-        <v>110.4531634086306</v>
+        <v>277.8588124289835</v>
       </c>
       <c r="K23" t="n">
-        <v>386.8516622226603</v>
+        <v>723.0033308809686</v>
       </c>
       <c r="L23" t="n">
-        <v>991.3694272754657</v>
+        <v>1125.543524718908</v>
       </c>
       <c r="M23" t="n">
-        <v>1235.600066315125</v>
+        <v>1814.792561916472</v>
       </c>
       <c r="N23" t="n">
-        <v>1921.369875976415</v>
+        <v>2067.588916409897</v>
       </c>
       <c r="O23" t="n">
-        <v>2523.735223266576</v>
+        <v>2292.962084249941</v>
       </c>
       <c r="P23" t="n">
-        <v>3000.165728056346</v>
+        <v>2769.392589039711</v>
       </c>
       <c r="Q23" t="n">
-        <v>3070.531595202837</v>
+        <v>3049.950296939507</v>
       </c>
       <c r="R23" t="n">
         <v>3070.531595202837</v>
@@ -6026,13 +6026,13 @@
         <v>2608.461299083237</v>
       </c>
       <c r="W23" t="n">
-        <v>2376.840472854088</v>
+        <v>2376.840472854087</v>
       </c>
       <c r="X23" t="n">
-        <v>2124.522543633973</v>
+        <v>2124.522543633972</v>
       </c>
       <c r="Y23" t="n">
-        <v>1855.531040699127</v>
+        <v>1855.531040699126</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>337.6083038089943</v>
       </c>
       <c r="G24" t="n">
-        <v>200.3457699636407</v>
+        <v>200.3457699636408</v>
       </c>
       <c r="H24" t="n">
         <v>101.1572398168874</v>
@@ -6066,16 +6066,16 @@
         <v>61.41063190405674</v>
       </c>
       <c r="J24" t="n">
-        <v>196.6323057232175</v>
+        <v>196.6323057232174</v>
       </c>
       <c r="K24" t="n">
-        <v>554.3685271862954</v>
+        <v>554.3685271862953</v>
       </c>
       <c r="L24" t="n">
         <v>1096.793420621976</v>
       </c>
       <c r="M24" t="n">
-        <v>1320.708895259857</v>
+        <v>1320.708895259856</v>
       </c>
       <c r="N24" t="n">
         <v>1564.95939114586</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>269.7578337595405</v>
+        <v>269.7578337595407</v>
       </c>
       <c r="C25" t="n">
-        <v>221.9694798725986</v>
+        <v>221.9694798725987</v>
       </c>
       <c r="D25" t="n">
-        <v>193.0006695012278</v>
+        <v>193.0006695012279</v>
       </c>
       <c r="E25" t="n">
-        <v>166.2354049597996</v>
+        <v>166.2354049597998</v>
       </c>
       <c r="F25" t="n">
-        <v>140.4932865028542</v>
+        <v>140.4932865028544</v>
       </c>
       <c r="G25" t="n">
-        <v>93.18422393686217</v>
+        <v>93.18422393686231</v>
       </c>
       <c r="H25" t="n">
         <v>61.41063190405674</v>
@@ -6154,10 +6154,10 @@
         <v>386.2170501813532</v>
       </c>
       <c r="M25" t="n">
-        <v>614.5247606439671</v>
+        <v>614.5247606439669</v>
       </c>
       <c r="N25" t="n">
-        <v>842.838440466457</v>
+        <v>842.8384404664567</v>
       </c>
       <c r="O25" t="n">
         <v>1037.706781907947</v>
@@ -6169,7 +6169,7 @@
         <v>1196.65462659433</v>
       </c>
       <c r="R25" t="n">
-        <v>1194.066944398557</v>
+        <v>1194.066944398556</v>
       </c>
       <c r="S25" t="n">
         <v>1110.387767449322</v>
@@ -6178,19 +6178,19 @@
         <v>1006.54710977447</v>
       </c>
       <c r="U25" t="n">
-        <v>838.5509416693511</v>
+        <v>838.5509416693507</v>
       </c>
       <c r="V25" t="n">
-        <v>705.0142825044292</v>
+        <v>705.0142825044287</v>
       </c>
       <c r="W25" t="n">
-        <v>536.7449415084335</v>
+        <v>536.744941508433</v>
       </c>
       <c r="X25" t="n">
-        <v>429.9032196513805</v>
+        <v>429.9032196513807</v>
       </c>
       <c r="Y25" t="n">
-        <v>330.2584695488153</v>
+        <v>330.2584695488155</v>
       </c>
     </row>
     <row r="26">
@@ -6209,67 +6209,67 @@
         <v>1300.592863035611</v>
       </c>
       <c r="E26" t="n">
-        <v>996.3600848673726</v>
+        <v>996.3600848673731</v>
       </c>
       <c r="F26" t="n">
-        <v>666.9296545077714</v>
+        <v>666.9296545077719</v>
       </c>
       <c r="G26" t="n">
-        <v>331.7316425513541</v>
+        <v>331.7316425513547</v>
       </c>
       <c r="H26" t="n">
-        <v>98.48760428509668</v>
+        <v>98.48760428509652</v>
       </c>
       <c r="I26" t="n">
-        <v>73.23803064274594</v>
+        <v>73.23803064274591</v>
       </c>
       <c r="J26" t="n">
-        <v>122.2805621473198</v>
+        <v>289.6862111676727</v>
       </c>
       <c r="K26" t="n">
-        <v>567.4250805993049</v>
+        <v>734.8307296196579</v>
       </c>
       <c r="L26" t="n">
-        <v>1171.94284565211</v>
+        <v>1339.348494672463</v>
       </c>
       <c r="M26" t="n">
-        <v>1861.191882849674</v>
+        <v>2028.597531870026</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.961692510964</v>
+        <v>2714.367341531316</v>
       </c>
       <c r="O26" t="n">
-        <v>3149.327039801125</v>
+        <v>3223.494040537497</v>
       </c>
       <c r="P26" t="n">
-        <v>3591.535664990807</v>
+        <v>3381.3438242375</v>
       </c>
       <c r="Q26" t="n">
-        <v>3661.901532137297</v>
+        <v>3661.901532137295</v>
       </c>
       <c r="R26" t="n">
-        <v>3661.901532137297</v>
+        <v>3661.901532137295</v>
       </c>
       <c r="S26" t="n">
-        <v>3594.859724970911</v>
+        <v>3594.85972497091</v>
       </c>
       <c r="T26" t="n">
         <v>3463.078715682097</v>
       </c>
       <c r="U26" t="n">
-        <v>3290.969230487427</v>
+        <v>3290.969230487426</v>
       </c>
       <c r="V26" t="n">
         <v>3041.461817573862</v>
       </c>
       <c r="W26" t="n">
-        <v>2770.248636733755</v>
+        <v>2770.248636733754</v>
       </c>
       <c r="X26" t="n">
         <v>2478.338352902681</v>
       </c>
       <c r="Y26" t="n">
-        <v>2169.754495356876</v>
+        <v>2169.754495356875</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>112.9846385555766</v>
       </c>
       <c r="I27" t="n">
-        <v>73.23803064274594</v>
+        <v>73.23803064274591</v>
       </c>
       <c r="J27" t="n">
-        <v>208.4597044619067</v>
+        <v>208.4597044619066</v>
       </c>
       <c r="K27" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249844</v>
       </c>
       <c r="L27" t="n">
         <v>1108.620819360665</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.536293998546</v>
+        <v>1332.536293998545</v>
       </c>
       <c r="N27" t="n">
-        <v>1576.78678988455</v>
+        <v>1720.602430596406</v>
       </c>
       <c r="O27" t="n">
         <v>1921.824120925767</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5860527282128</v>
+        <v>557.5860527282116</v>
       </c>
       <c r="C28" t="n">
-        <v>470.2053442303122</v>
+        <v>470.2053442303112</v>
       </c>
       <c r="D28" t="n">
-        <v>401.6441792479828</v>
+        <v>401.6441792479819</v>
       </c>
       <c r="E28" t="n">
-        <v>335.286560095596</v>
+        <v>335.2865600955952</v>
       </c>
       <c r="F28" t="n">
-        <v>269.9520870276919</v>
+        <v>269.9520870276913</v>
       </c>
       <c r="G28" t="n">
-        <v>183.0506698507412</v>
+        <v>183.0506698507408</v>
       </c>
       <c r="H28" t="n">
-        <v>111.6847232069771</v>
+        <v>111.6847232069769</v>
       </c>
       <c r="I28" t="n">
-        <v>73.23803064274594</v>
+        <v>73.23803064274591</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0423989494089</v>
+        <v>146.0423989494088</v>
       </c>
       <c r="K28" t="n">
         <v>344.0980124346881</v>
@@ -6391,43 +6391,43 @@
         <v>630.7138582044038</v>
       </c>
       <c r="M28" t="n">
-        <v>938.9540891558667</v>
+        <v>938.9540891558668</v>
       </c>
       <c r="N28" t="n">
-        <v>1247.200289467205</v>
+        <v>1247.200289467206</v>
       </c>
       <c r="O28" t="n">
-        <v>1522.001151397545</v>
+        <v>1522.001151397546</v>
       </c>
       <c r="P28" t="n">
-        <v>1745.156520306959</v>
+        <v>1745.15652030696</v>
       </c>
       <c r="Q28" t="n">
         <v>1840.814037061627</v>
       </c>
       <c r="R28" t="n">
-        <v>1798.634000254894</v>
+        <v>1798.634000254895</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.362468694701</v>
+        <v>1675.362468694702</v>
       </c>
       <c r="T28" t="n">
-        <v>1531.92945640889</v>
+        <v>1531.929456408892</v>
       </c>
       <c r="U28" t="n">
-        <v>1324.340933692813</v>
+        <v>1324.340933692814</v>
       </c>
       <c r="V28" t="n">
         <v>1151.211919916934</v>
       </c>
       <c r="W28" t="n">
-        <v>943.3502243099797</v>
+        <v>943.3502243099794</v>
       </c>
       <c r="X28" t="n">
-        <v>796.9161478419687</v>
+        <v>796.9161478419684</v>
       </c>
       <c r="Y28" t="n">
-        <v>657.6790431284462</v>
+        <v>657.6790431284448</v>
       </c>
     </row>
     <row r="29">
@@ -6440,55 +6440,55 @@
         <v>1864.71012972276</v>
       </c>
       <c r="C29" t="n">
-        <v>1577.303087212354</v>
+        <v>1577.303087212355</v>
       </c>
       <c r="D29" t="n">
-        <v>1300.59286303561</v>
+        <v>1300.592863035611</v>
       </c>
       <c r="E29" t="n">
-        <v>996.3600848673723</v>
+        <v>996.360084867373</v>
       </c>
       <c r="F29" t="n">
-        <v>666.9296545077711</v>
+        <v>666.9296545077718</v>
       </c>
       <c r="G29" t="n">
         <v>331.7316425513545</v>
       </c>
       <c r="H29" t="n">
-        <v>98.48760428509657</v>
+        <v>98.48760428509651</v>
       </c>
       <c r="I29" t="n">
-        <v>73.23803064274591</v>
+        <v>73.2380306427459</v>
       </c>
       <c r="J29" t="n">
-        <v>289.6862111676728</v>
+        <v>122.2805621473197</v>
       </c>
       <c r="K29" t="n">
-        <v>734.830729619658</v>
+        <v>533.2032009992145</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.348494672463</v>
+        <v>1137.72096605202</v>
       </c>
       <c r="M29" t="n">
-        <v>2028.597531870027</v>
+        <v>1826.970003249583</v>
       </c>
       <c r="N29" t="n">
-        <v>2714.367341531317</v>
+        <v>2512.739812910873</v>
       </c>
       <c r="O29" t="n">
-        <v>3316.732688821478</v>
+        <v>3115.105160201034</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.582472521481</v>
+        <v>3591.535664990804</v>
       </c>
       <c r="Q29" t="n">
-        <v>3661.901532137296</v>
+        <v>3661.901532137295</v>
       </c>
       <c r="R29" t="n">
-        <v>3661.901532137296</v>
+        <v>3661.901532137295</v>
       </c>
       <c r="S29" t="n">
-        <v>3594.859724970911</v>
+        <v>3594.85972497091</v>
       </c>
       <c r="T29" t="n">
         <v>3463.078715682097</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>978.5951544686321</v>
+        <v>978.5951544686324</v>
       </c>
       <c r="C30" t="n">
-        <v>804.1421251875051</v>
+        <v>804.1421251875054</v>
       </c>
       <c r="D30" t="n">
-        <v>655.2077155262539</v>
+        <v>655.2077155262541</v>
       </c>
       <c r="E30" t="n">
-        <v>495.9702605207984</v>
+        <v>495.9702605207985</v>
       </c>
       <c r="F30" t="n">
-        <v>349.4357025476834</v>
+        <v>349.4357025476835</v>
       </c>
       <c r="G30" t="n">
         <v>212.1731687023299</v>
@@ -6537,22 +6537,22 @@
         <v>112.9846385555766</v>
       </c>
       <c r="I30" t="n">
-        <v>73.23803064274591</v>
+        <v>73.2380306427459</v>
       </c>
       <c r="J30" t="n">
-        <v>208.4597044619066</v>
+        <v>208.4597044619065</v>
       </c>
       <c r="K30" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249844</v>
       </c>
       <c r="L30" t="n">
         <v>1108.620819360665</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.536293998546</v>
+        <v>1476.351934710403</v>
       </c>
       <c r="N30" t="n">
-        <v>1576.78678988455</v>
+        <v>1720.602430596406</v>
       </c>
       <c r="O30" t="n">
         <v>1921.824120925767</v>
@@ -6576,7 +6576,7 @@
         <v>2051.811755419131</v>
       </c>
       <c r="V30" t="n">
-        <v>1816.659647187388</v>
+        <v>1816.659647187389</v>
       </c>
       <c r="W30" t="n">
         <v>1562.422290459187</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>557.5860527282109</v>
+        <v>557.5860527282114</v>
       </c>
       <c r="C31" t="n">
-        <v>470.2053442303104</v>
+        <v>470.205344230311</v>
       </c>
       <c r="D31" t="n">
-        <v>401.6441792479811</v>
+        <v>401.6441792479817</v>
       </c>
       <c r="E31" t="n">
-        <v>335.2865600955943</v>
+        <v>335.2865600955951</v>
       </c>
       <c r="F31" t="n">
-        <v>269.9520870276904</v>
+        <v>269.9520870276912</v>
       </c>
       <c r="G31" t="n">
-        <v>183.0506698507397</v>
+        <v>183.0506698507406</v>
       </c>
       <c r="H31" t="n">
-        <v>111.684723206977</v>
+        <v>111.6847232069769</v>
       </c>
       <c r="I31" t="n">
-        <v>73.23803064274591</v>
+        <v>73.2380306427459</v>
       </c>
       <c r="J31" t="n">
-        <v>146.042398949409</v>
+        <v>146.0423989494091</v>
       </c>
       <c r="K31" t="n">
-        <v>344.0980124346883</v>
+        <v>344.0980124346884</v>
       </c>
       <c r="L31" t="n">
         <v>630.713858204404</v>
       </c>
       <c r="M31" t="n">
-        <v>938.954089155867</v>
+        <v>938.9540891558671</v>
       </c>
       <c r="N31" t="n">
         <v>1247.200289467206</v>
@@ -6658,13 +6658,13 @@
         <v>1151.211919916933</v>
       </c>
       <c r="W31" t="n">
-        <v>943.3502243099789</v>
+        <v>943.3502243099792</v>
       </c>
       <c r="X31" t="n">
-        <v>796.9161478419679</v>
+        <v>796.9161478419685</v>
       </c>
       <c r="Y31" t="n">
-        <v>657.6790431284443</v>
+        <v>657.6790431284446</v>
       </c>
     </row>
     <row r="32">
@@ -6677,64 +6677,64 @@
         <v>1864.71012972276</v>
       </c>
       <c r="C32" t="n">
-        <v>1577.303087212354</v>
+        <v>1577.303087212355</v>
       </c>
       <c r="D32" t="n">
-        <v>1300.59286303561</v>
+        <v>1300.592863035611</v>
       </c>
       <c r="E32" t="n">
-        <v>996.3600848673725</v>
+        <v>996.3600848673734</v>
       </c>
       <c r="F32" t="n">
-        <v>666.9296545077714</v>
+        <v>666.9296545077723</v>
       </c>
       <c r="G32" t="n">
-        <v>331.7316425513541</v>
+        <v>331.731642551355</v>
       </c>
       <c r="H32" t="n">
-        <v>98.48760428509652</v>
+        <v>98.48760428509655</v>
       </c>
       <c r="I32" t="n">
         <v>73.23803064274591</v>
       </c>
       <c r="J32" t="n">
-        <v>122.2805621473197</v>
+        <v>289.6862111676727</v>
       </c>
       <c r="K32" t="n">
-        <v>512.621902735884</v>
+        <v>734.8307296196579</v>
       </c>
       <c r="L32" t="n">
-        <v>1117.139667788689</v>
+        <v>1339.348494672463</v>
       </c>
       <c r="M32" t="n">
-        <v>1806.388704986253</v>
+        <v>2028.597531870026</v>
       </c>
       <c r="N32" t="n">
-        <v>2492.158514647543</v>
+        <v>2714.367341531316</v>
       </c>
       <c r="O32" t="n">
-        <v>3094.523861937704</v>
+        <v>3094.523861937706</v>
       </c>
       <c r="P32" t="n">
-        <v>3570.954366727475</v>
+        <v>3570.954366727476</v>
       </c>
       <c r="Q32" t="n">
-        <v>3641.320233873965</v>
+        <v>3641.320233873966</v>
       </c>
       <c r="R32" t="n">
-        <v>3661.901532137295</v>
+        <v>3661.901532137296</v>
       </c>
       <c r="S32" t="n">
-        <v>3594.85972497091</v>
+        <v>3594.859724970911</v>
       </c>
       <c r="T32" t="n">
-        <v>3463.078715682096</v>
+        <v>3463.078715682097</v>
       </c>
       <c r="U32" t="n">
         <v>3290.969230487426</v>
       </c>
       <c r="V32" t="n">
-        <v>3041.461817573861</v>
+        <v>3041.461817573862</v>
       </c>
       <c r="W32" t="n">
         <v>2770.248636733754</v>
@@ -6743,7 +6743,7 @@
         <v>2478.338352902681</v>
       </c>
       <c r="Y32" t="n">
-        <v>2169.754495356875</v>
+        <v>2169.754495356876</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>978.5951544686321</v>
+        <v>978.5951544686324</v>
       </c>
       <c r="C33" t="n">
-        <v>804.1421251875051</v>
+        <v>804.1421251875054</v>
       </c>
       <c r="D33" t="n">
-        <v>655.2077155262539</v>
+        <v>655.2077155262541</v>
       </c>
       <c r="E33" t="n">
-        <v>495.9702605207984</v>
+        <v>495.9702605207985</v>
       </c>
       <c r="F33" t="n">
-        <v>349.4357025476834</v>
+        <v>349.4357025476835</v>
       </c>
       <c r="G33" t="n">
-        <v>212.1731687023299</v>
+        <v>212.17316870233</v>
       </c>
       <c r="H33" t="n">
         <v>112.9846385555766</v>
@@ -6780,16 +6780,16 @@
         <v>208.4597044619066</v>
       </c>
       <c r="K33" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249844</v>
       </c>
       <c r="L33" t="n">
         <v>1108.620819360665</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.536293998546</v>
+        <v>1332.536293998545</v>
       </c>
       <c r="N33" t="n">
-        <v>1576.78678988455</v>
+        <v>1576.786789884549</v>
       </c>
       <c r="O33" t="n">
         <v>1921.824120925767</v>
@@ -6813,7 +6813,7 @@
         <v>2051.811755419131</v>
       </c>
       <c r="V33" t="n">
-        <v>1816.659647187388</v>
+        <v>1816.659647187389</v>
       </c>
       <c r="W33" t="n">
         <v>1562.422290459187</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.5860527282117</v>
+        <v>557.5860527282116</v>
       </c>
       <c r="C34" t="n">
-        <v>470.2053442303112</v>
+        <v>470.2053442303111</v>
       </c>
       <c r="D34" t="n">
-        <v>401.6441792479819</v>
+        <v>401.6441792479818</v>
       </c>
       <c r="E34" t="n">
-        <v>335.2865600955952</v>
+        <v>335.2865600955951</v>
       </c>
       <c r="F34" t="n">
-        <v>269.9520870276912</v>
+        <v>269.9520870276911</v>
       </c>
       <c r="G34" t="n">
-        <v>183.0506698507406</v>
+        <v>183.0506698507405</v>
       </c>
       <c r="H34" t="n">
         <v>111.6847232069769</v>
@@ -6856,34 +6856,34 @@
         <v>73.23803064274591</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0423989494091</v>
+        <v>146.0423989494088</v>
       </c>
       <c r="K34" t="n">
-        <v>344.0980124346888</v>
+        <v>344.0980124346881</v>
       </c>
       <c r="L34" t="n">
-        <v>630.7138582044045</v>
+        <v>630.7138582044038</v>
       </c>
       <c r="M34" t="n">
-        <v>938.9540891558677</v>
+        <v>938.9540891558668</v>
       </c>
       <c r="N34" t="n">
-        <v>1247.200289467207</v>
+        <v>1247.200289467206</v>
       </c>
       <c r="O34" t="n">
         <v>1522.001151397546</v>
       </c>
       <c r="P34" t="n">
-        <v>1745.156520306961</v>
+        <v>1745.15652030696</v>
       </c>
       <c r="Q34" t="n">
-        <v>1840.814037061628</v>
+        <v>1840.814037061627</v>
       </c>
       <c r="R34" t="n">
         <v>1798.634000254895</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.362468694703</v>
+        <v>1675.362468694702</v>
       </c>
       <c r="T34" t="n">
         <v>1531.929456408892</v>
@@ -6898,10 +6898,10 @@
         <v>943.3502243099795</v>
       </c>
       <c r="X34" t="n">
-        <v>796.9161478419686</v>
+        <v>796.9161478419685</v>
       </c>
       <c r="Y34" t="n">
-        <v>657.679043128445</v>
+        <v>657.6790431284448</v>
       </c>
     </row>
     <row r="35">
@@ -6932,40 +6932,40 @@
         <v>98.48760428509644</v>
       </c>
       <c r="I35" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J35" t="n">
-        <v>289.6862111676728</v>
+        <v>289.6862111676726</v>
       </c>
       <c r="K35" t="n">
-        <v>734.830729619658</v>
+        <v>734.8307296196577</v>
       </c>
       <c r="L35" t="n">
         <v>1339.348494672463</v>
       </c>
       <c r="M35" t="n">
-        <v>1616.778162496277</v>
+        <v>1596.196864232946</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.547972157567</v>
+        <v>2281.966673894236</v>
       </c>
       <c r="O35" t="n">
-        <v>2904.913319447728</v>
+        <v>2884.332021184397</v>
       </c>
       <c r="P35" t="n">
-        <v>3381.343824237499</v>
+        <v>3360.762525974168</v>
       </c>
       <c r="Q35" t="n">
-        <v>3661.901532137294</v>
+        <v>3641.320233873963</v>
       </c>
       <c r="R35" t="n">
         <v>3661.901532137294</v>
       </c>
       <c r="S35" t="n">
-        <v>3594.859724970909</v>
+        <v>3594.859724970908</v>
       </c>
       <c r="T35" t="n">
-        <v>3463.078715682096</v>
+        <v>3463.078715682095</v>
       </c>
       <c r="U35" t="n">
         <v>3290.969230487425</v>
@@ -7008,25 +7008,25 @@
         <v>212.1731687023299</v>
       </c>
       <c r="H36" t="n">
-        <v>112.9846385555766</v>
+        <v>112.9846385555765</v>
       </c>
       <c r="I36" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J36" t="n">
-        <v>208.4597044619066</v>
+        <v>208.4597044619065</v>
       </c>
       <c r="K36" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249844</v>
       </c>
       <c r="L36" t="n">
         <v>1108.620819360665</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.536293998546</v>
+        <v>1332.536293998545</v>
       </c>
       <c r="N36" t="n">
-        <v>1576.78678988455</v>
+        <v>1576.786789884549</v>
       </c>
       <c r="O36" t="n">
         <v>1921.824120925767</v>
@@ -7087,31 +7087,31 @@
         <v>183.0506698507407</v>
       </c>
       <c r="H37" t="n">
-        <v>111.6847232069769</v>
+        <v>111.6847232069768</v>
       </c>
       <c r="I37" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J37" t="n">
-        <v>146.0423989494091</v>
+        <v>146.0423989494083</v>
       </c>
       <c r="K37" t="n">
-        <v>344.0980124346885</v>
+        <v>344.0980124346877</v>
       </c>
       <c r="L37" t="n">
-        <v>630.7138582044043</v>
+        <v>630.7138582044034</v>
       </c>
       <c r="M37" t="n">
-        <v>938.9540891558675</v>
+        <v>938.9540891558665</v>
       </c>
       <c r="N37" t="n">
-        <v>1247.200289467207</v>
+        <v>1247.200289467206</v>
       </c>
       <c r="O37" t="n">
         <v>1522.001151397545</v>
       </c>
       <c r="P37" t="n">
-        <v>1745.156520306959</v>
+        <v>1745.15652030696</v>
       </c>
       <c r="Q37" t="n">
         <v>1840.814037061627</v>
@@ -7163,43 +7163,43 @@
         <v>666.9296545077707</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7316425513538</v>
+        <v>331.7316425513536</v>
       </c>
       <c r="H38" t="n">
-        <v>98.48760428509644</v>
+        <v>98.48760428509638</v>
       </c>
       <c r="I38" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J38" t="n">
-        <v>289.6862111676728</v>
+        <v>289.6862111676726</v>
       </c>
       <c r="K38" t="n">
-        <v>413.9267711742049</v>
+        <v>734.8307296196577</v>
       </c>
       <c r="L38" t="n">
-        <v>1018.44453622701</v>
+        <v>1339.348494672463</v>
       </c>
       <c r="M38" t="n">
-        <v>1707.693573424574</v>
+        <v>2028.597531870026</v>
       </c>
       <c r="N38" t="n">
-        <v>2393.463383085864</v>
+        <v>2281.966673894236</v>
       </c>
       <c r="O38" t="n">
-        <v>2995.828730376025</v>
+        <v>2884.332021184397</v>
       </c>
       <c r="P38" t="n">
-        <v>3381.343824237499</v>
+        <v>3360.762525974168</v>
       </c>
       <c r="Q38" t="n">
-        <v>3661.901532137294</v>
+        <v>3641.320233873963</v>
       </c>
       <c r="R38" t="n">
         <v>3661.901532137294</v>
       </c>
       <c r="S38" t="n">
-        <v>3594.859724970909</v>
+        <v>3594.859724970908</v>
       </c>
       <c r="T38" t="n">
         <v>3463.078715682095</v>
@@ -7245,25 +7245,25 @@
         <v>212.1731687023299</v>
       </c>
       <c r="H39" t="n">
-        <v>112.9846385555766</v>
+        <v>112.9846385555765</v>
       </c>
       <c r="I39" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J39" t="n">
-        <v>208.4597044619066</v>
+        <v>208.4597044619065</v>
       </c>
       <c r="K39" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249844</v>
       </c>
       <c r="L39" t="n">
-        <v>741.4888775102403</v>
+        <v>1108.620819360665</v>
       </c>
       <c r="M39" t="n">
-        <v>1426.452365260621</v>
+        <v>1332.536293998545</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.702861146625</v>
+        <v>1576.786789884549</v>
       </c>
       <c r="O39" t="n">
         <v>1921.824120925767</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.5860527282114</v>
+        <v>557.586052728211</v>
       </c>
       <c r="C40" t="n">
-        <v>470.205344230311</v>
+        <v>470.2053442303106</v>
       </c>
       <c r="D40" t="n">
-        <v>401.6441792479818</v>
+        <v>401.6441792479815</v>
       </c>
       <c r="E40" t="n">
-        <v>335.2865600955951</v>
+        <v>335.2865600955949</v>
       </c>
       <c r="F40" t="n">
-        <v>269.9520870276913</v>
+        <v>269.9520870276911</v>
       </c>
       <c r="G40" t="n">
-        <v>183.0506698507407</v>
+        <v>183.0506698507406</v>
       </c>
       <c r="H40" t="n">
-        <v>111.6847232069769</v>
+        <v>111.6847232069768</v>
       </c>
       <c r="I40" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J40" t="n">
         <v>146.0423989494091</v>
       </c>
       <c r="K40" t="n">
-        <v>344.0980124346885</v>
+        <v>344.0980124346864</v>
       </c>
       <c r="L40" t="n">
-        <v>630.7138582044043</v>
+        <v>630.7138582044022</v>
       </c>
       <c r="M40" t="n">
-        <v>938.9540891558675</v>
+        <v>938.9540891558654</v>
       </c>
       <c r="N40" t="n">
         <v>1247.200289467205</v>
       </c>
       <c r="O40" t="n">
-        <v>1522.001151397545</v>
+        <v>1522.001151397544</v>
       </c>
       <c r="P40" t="n">
         <v>1745.156520306959</v>
       </c>
       <c r="Q40" t="n">
-        <v>1840.814037061627</v>
+        <v>1840.814037061626</v>
       </c>
       <c r="R40" t="n">
-        <v>1798.634000254895</v>
+        <v>1798.634000254894</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.362468694702</v>
+        <v>1675.362468694701</v>
       </c>
       <c r="T40" t="n">
         <v>1531.929456408891</v>
       </c>
       <c r="U40" t="n">
-        <v>1324.340933692814</v>
+        <v>1324.340933692813</v>
       </c>
       <c r="V40" t="n">
         <v>1151.211919916933</v>
       </c>
       <c r="W40" t="n">
-        <v>943.3502243099791</v>
+        <v>943.3502243099786</v>
       </c>
       <c r="X40" t="n">
-        <v>796.9161478419683</v>
+        <v>796.9161478419677</v>
       </c>
       <c r="Y40" t="n">
-        <v>657.6790431284446</v>
+        <v>657.6790431284442</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1864.710129722758</v>
+        <v>1864.710129722759</v>
       </c>
       <c r="C41" t="n">
-        <v>1577.303087212353</v>
+        <v>1577.303087212354</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.592863035609</v>
+        <v>1300.59286303561</v>
       </c>
       <c r="E41" t="n">
-        <v>996.3600848673717</v>
+        <v>996.3600848673723</v>
       </c>
       <c r="F41" t="n">
-        <v>666.9296545077707</v>
+        <v>666.9296545077711</v>
       </c>
       <c r="G41" t="n">
-        <v>331.7316425513536</v>
+        <v>331.731642551354</v>
       </c>
       <c r="H41" t="n">
-        <v>98.48760428509642</v>
+        <v>98.48760428509644</v>
       </c>
       <c r="I41" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J41" t="n">
-        <v>289.6862111676728</v>
+        <v>289.6862111676726</v>
       </c>
       <c r="K41" t="n">
-        <v>734.830729619658</v>
+        <v>734.8307296196577</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.348494672463</v>
+        <v>925.863892267517</v>
       </c>
       <c r="M41" t="n">
-        <v>2028.597531870027</v>
+        <v>1615.11292946508</v>
       </c>
       <c r="N41" t="n">
-        <v>2679.540151607684</v>
+        <v>2281.966673894236</v>
       </c>
       <c r="O41" t="n">
-        <v>2904.913319447728</v>
+        <v>2884.332021184397</v>
       </c>
       <c r="P41" t="n">
-        <v>3381.343824237499</v>
+        <v>3360.762525974168</v>
       </c>
       <c r="Q41" t="n">
-        <v>3661.901532137294</v>
+        <v>3641.320233873963</v>
       </c>
       <c r="R41" t="n">
         <v>3661.901532137294</v>
@@ -7442,16 +7442,16 @@
         <v>3463.078715682095</v>
       </c>
       <c r="U41" t="n">
-        <v>3290.969230487424</v>
+        <v>3290.969230487425</v>
       </c>
       <c r="V41" t="n">
-        <v>3041.46181757386</v>
+        <v>3041.461817573861</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.248636733752</v>
+        <v>2770.248636733753</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.338352902679</v>
+        <v>2478.33835290268</v>
       </c>
       <c r="Y41" t="n">
         <v>2169.754495356874</v>
@@ -7482,25 +7482,25 @@
         <v>212.1731687023299</v>
       </c>
       <c r="H42" t="n">
-        <v>112.9846385555766</v>
+        <v>112.9846385555765</v>
       </c>
       <c r="I42" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J42" t="n">
-        <v>208.4597044619066</v>
+        <v>208.4597044619065</v>
       </c>
       <c r="K42" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249844</v>
       </c>
       <c r="L42" t="n">
         <v>1108.620819360665</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.536293998546</v>
+        <v>1332.536293998545</v>
       </c>
       <c r="N42" t="n">
-        <v>1576.78678988455</v>
+        <v>1576.786789884549</v>
       </c>
       <c r="O42" t="n">
         <v>1921.824120925767</v>
@@ -7546,16 +7546,16 @@
         <v>557.5860527282114</v>
       </c>
       <c r="C43" t="n">
-        <v>470.2053442303109</v>
+        <v>470.205344230311</v>
       </c>
       <c r="D43" t="n">
-        <v>401.6441792479817</v>
+        <v>401.6441792479818</v>
       </c>
       <c r="E43" t="n">
         <v>335.2865600955951</v>
       </c>
       <c r="F43" t="n">
-        <v>269.9520870276912</v>
+        <v>269.9520870276913</v>
       </c>
       <c r="G43" t="n">
         <v>183.0506698507407</v>
@@ -7564,28 +7564,28 @@
         <v>111.6847232069768</v>
       </c>
       <c r="I43" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J43" t="n">
-        <v>146.0423989494092</v>
+        <v>146.0423989494091</v>
       </c>
       <c r="K43" t="n">
-        <v>344.0980124346886</v>
+        <v>344.0980124346885</v>
       </c>
       <c r="L43" t="n">
-        <v>630.7138582044045</v>
+        <v>630.7138582044034</v>
       </c>
       <c r="M43" t="n">
-        <v>938.9540891558659</v>
+        <v>938.9540891558665</v>
       </c>
       <c r="N43" t="n">
-        <v>1247.200289467205</v>
+        <v>1247.200289467206</v>
       </c>
       <c r="O43" t="n">
         <v>1522.001151397545</v>
       </c>
       <c r="P43" t="n">
-        <v>1745.156520306959</v>
+        <v>1745.15652030696</v>
       </c>
       <c r="Q43" t="n">
         <v>1840.814037061627</v>
@@ -7625,46 +7625,46 @@
         <v>1864.71012972276</v>
       </c>
       <c r="C44" t="n">
-        <v>1577.303087212354</v>
+        <v>1577.303087212355</v>
       </c>
       <c r="D44" t="n">
         <v>1300.59286303561</v>
       </c>
       <c r="E44" t="n">
-        <v>996.3600848673725</v>
+        <v>996.3600848673727</v>
       </c>
       <c r="F44" t="n">
-        <v>666.9296545077714</v>
+        <v>666.9296545077716</v>
       </c>
       <c r="G44" t="n">
-        <v>331.7316425513541</v>
+        <v>331.7316425513545</v>
       </c>
       <c r="H44" t="n">
-        <v>98.4876042850965</v>
+        <v>98.48760428509648</v>
       </c>
       <c r="I44" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J44" t="n">
-        <v>289.6862111676728</v>
+        <v>289.6862111676726</v>
       </c>
       <c r="K44" t="n">
-        <v>734.830729619658</v>
+        <v>734.8307296196576</v>
       </c>
       <c r="L44" t="n">
         <v>1339.348494672463</v>
       </c>
       <c r="M44" t="n">
-        <v>1993.770341946395</v>
+        <v>1616.778162496277</v>
       </c>
       <c r="N44" t="n">
-        <v>2679.540151607684</v>
+        <v>2302.547972157567</v>
       </c>
       <c r="O44" t="n">
         <v>2904.913319447728</v>
       </c>
       <c r="P44" t="n">
-        <v>3381.343824237499</v>
+        <v>3381.343824237498</v>
       </c>
       <c r="Q44" t="n">
         <v>3661.901532137294</v>
@@ -7673,10 +7673,10 @@
         <v>3661.901532137294</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.859724970909</v>
+        <v>3594.859724970908</v>
       </c>
       <c r="T44" t="n">
-        <v>3463.078715682096</v>
+        <v>3463.078715682095</v>
       </c>
       <c r="U44" t="n">
         <v>3290.969230487425</v>
@@ -7688,7 +7688,7 @@
         <v>2770.248636733753</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.33835290268</v>
+        <v>2478.338352902681</v>
       </c>
       <c r="Y44" t="n">
         <v>2169.754495356875</v>
@@ -7722,25 +7722,25 @@
         <v>112.9846385555766</v>
       </c>
       <c r="I45" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J45" t="n">
-        <v>208.4597044619066</v>
+        <v>208.4597044619065</v>
       </c>
       <c r="K45" t="n">
-        <v>566.1959259249845</v>
+        <v>566.1959259249843</v>
       </c>
       <c r="L45" t="n">
-        <v>1108.620819360665</v>
+        <v>1108.620819360664</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.536293998546</v>
+        <v>1332.536293998545</v>
       </c>
       <c r="N45" t="n">
-        <v>1576.78678988455</v>
+        <v>1576.786789884549</v>
       </c>
       <c r="O45" t="n">
-        <v>1921.824120925767</v>
+        <v>1921.824120925768</v>
       </c>
       <c r="P45" t="n">
         <v>2379.267342142925</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.5860527282117</v>
+        <v>557.5860527282113</v>
       </c>
       <c r="C46" t="n">
-        <v>470.2053442303113</v>
+        <v>470.2053442303109</v>
       </c>
       <c r="D46" t="n">
-        <v>401.644179247982</v>
+        <v>401.6441792479816</v>
       </c>
       <c r="E46" t="n">
-        <v>335.2865600955953</v>
+        <v>335.286560095595</v>
       </c>
       <c r="F46" t="n">
-        <v>269.9520870276914</v>
+        <v>269.9520870276912</v>
       </c>
       <c r="G46" t="n">
-        <v>183.0506698507409</v>
+        <v>183.0506698507407</v>
       </c>
       <c r="H46" t="n">
         <v>111.6847232069769</v>
       </c>
       <c r="I46" t="n">
-        <v>73.2380306427459</v>
+        <v>73.23803064274587</v>
       </c>
       <c r="J46" t="n">
         <v>146.0423989494091</v>
       </c>
       <c r="K46" t="n">
-        <v>344.0980124346883</v>
+        <v>344.0980124346884</v>
       </c>
       <c r="L46" t="n">
-        <v>630.713858204404</v>
+        <v>630.7138582044041</v>
       </c>
       <c r="M46" t="n">
-        <v>938.9540891558671</v>
+        <v>938.954089155867</v>
       </c>
       <c r="N46" t="n">
         <v>1247.200289467206</v>
@@ -7825,31 +7825,31 @@
         <v>1745.15652030696</v>
       </c>
       <c r="Q46" t="n">
-        <v>1840.814037061628</v>
+        <v>1840.814037061627</v>
       </c>
       <c r="R46" t="n">
         <v>1798.634000254895</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.362468694703</v>
+        <v>1675.362468694702</v>
       </c>
       <c r="T46" t="n">
-        <v>1531.929456408892</v>
+        <v>1531.929456408891</v>
       </c>
       <c r="U46" t="n">
-        <v>1324.340933692814</v>
+        <v>1324.340933692813</v>
       </c>
       <c r="V46" t="n">
-        <v>1151.211919916934</v>
+        <v>1151.211919916933</v>
       </c>
       <c r="W46" t="n">
-        <v>943.3502243099798</v>
+        <v>943.350224309979</v>
       </c>
       <c r="X46" t="n">
-        <v>796.916147841969</v>
+        <v>796.9161478419682</v>
       </c>
       <c r="Y46" t="n">
-        <v>657.679043128445</v>
+        <v>657.6790431284445</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>406.1391759302163</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>397.4869380981289</v>
       </c>
       <c r="O11" t="n">
-        <v>208.6107951986107</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>50.92880191291383</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>278.5148116177951</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>426.6595440128203</v>
+        <v>145.2683239513707</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>321.0526416791039</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>229.3999853635918</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>44.9272297080025</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>69.86877331457822</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>145.2683239513699</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.148903553856</v>
+        <v>60.91479476075082</v>
       </c>
       <c r="R17" t="n">
-        <v>44.92722970800244</v>
+        <v>44.9272297080025</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>145.2683239513707</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.5743277508985</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>135.2692696716469</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>406.1391759302163</v>
       </c>
       <c r="N20" t="n">
-        <v>397.4869380981288</v>
+        <v>397.4869380981289</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>50.92880191291383</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>145.2683239513699</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>145.2683239513707</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>153.694887684341</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>213.6434658485661</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>44.92722970800244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>145.2683239513703</v>
+        <v>145.2683239513707</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>286.6197284506443</v>
       </c>
       <c r="P26" t="n">
-        <v>287.2311530198775</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>44.92722970800244</v>
+        <v>44.9272297080025</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>145.2683239513709</v>
       </c>
       <c r="O27" t="n">
-        <v>145.2683239513703</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>289.5778574195584</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>118.1345378478024</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>44.92722970800244</v>
+        <v>44.9272297080025</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>145.2683239513709</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>145.2683239513703</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>268.7886672545778</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>156.346820774087</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>145.2683239513703</v>
+        <v>145.2683239513709</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>33.53437250924665</v>
+        <v>12.74518234426685</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>44.92722970800244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>145.2683239513703</v>
+        <v>145.2683239513709</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,19 +10832,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0.5785732634185194</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>229.9649597590615</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>44.92722970800244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>50.40360550482961</v>
+        <v>145.2683239513709</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,16 +11063,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>402.1679446911434</v>
+        <v>418.2397878138689</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>44.92722970800244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>145.2683239513703</v>
+        <v>145.2683239513709</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>414.334553771992</v>
+        <v>33.53437250924767</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>44.92722970800244</v>
+        <v>44.92722970800256</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>145.2683239513703</v>
+        <v>145.268323951372</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.7908767213873</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>39.36580598875474</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.7940326495402</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.16834383833465</v>
+        <v>67.16834383833459</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>98.65271158436384</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>269.2980037753198</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>289.7881357363758</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.2949737139604</v>
+        <v>306.2949737139603</v>
       </c>
     </row>
     <row r="12">
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>19.00003865153228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>19.0000386515307</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.7908767213873</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>326.9330807996182</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>332.6429865804661</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>25.79403264954021</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.16834383833465</v>
+        <v>67.16834383833462</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>94.19941405749975</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>247.8092935280417</v>
+        <v>1.666880708547009</v>
       </c>
       <c r="W14" t="n">
-        <v>269.2980037753198</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>19.00003865153273</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.00003865153079</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7974909129253</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>158.5610396891886</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>155.5282857375464</v>
+        <v>286.9396949911562</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.17495802987259</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>234.7466908701277</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>27.17495802987261</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>131.1919592778752</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>79.56208453234254</v>
+        <v>207.8159077195796</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>210.5098689308929</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2.032152224273887e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>865598.6807165818</v>
+        <v>865598.6807165821</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>865598.6807165818</v>
+        <v>865598.6807165819</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916207.3534184339</v>
+        <v>916207.353418434</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916207.3534184338</v>
+        <v>916207.3534184339</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>985371.1411000504</v>
+        <v>985371.1411000505</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>985371.1411000504</v>
+        <v>985371.1411000505</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="C2" t="n">
         <v>553011.528634001</v>
@@ -26323,37 +26323,37 @@
         <v>498488.9015107605</v>
       </c>
       <c r="F2" t="n">
-        <v>498488.9015107603</v>
+        <v>498488.9015107606</v>
       </c>
       <c r="G2" t="n">
-        <v>530266.440184016</v>
+        <v>530266.4401840164</v>
       </c>
       <c r="H2" t="n">
-        <v>530266.4401840166</v>
+        <v>530266.4401840161</v>
       </c>
       <c r="I2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="J2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="K2" t="n">
-        <v>554203.1946583918</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="M2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="O2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="P2" t="n">
         <v>554203.1946583913</v>
-      </c>
-      <c r="P2" t="n">
-        <v>554203.1946583911</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>801817.2370505574</v>
+        <v>801817.2370505572</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31994.70864676964</v>
+        <v>31994.7086467696</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>30526.69575008559</v>
       </c>
       <c r="J3" t="n">
-        <v>71279.32604661533</v>
+        <v>71279.32604661537</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>31994.70864676968</v>
+        <v>31994.70864676957</v>
       </c>
       <c r="M3" t="n">
-        <v>162689.5396947148</v>
+        <v>162689.5396947147</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>32597.22710179535</v>
+        <v>32597.22710179547</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>153009.0419372153</v>
       </c>
       <c r="G4" t="n">
-        <v>179684.3800006606</v>
+        <v>179684.3800006607</v>
       </c>
       <c r="H4" t="n">
         <v>179684.3800006607</v>
@@ -26439,13 +26439,13 @@
         <v>193306.8570110975</v>
       </c>
       <c r="J4" t="n">
-        <v>184980.8601196798</v>
+        <v>184980.8601196799</v>
       </c>
       <c r="K4" t="n">
-        <v>184980.8601196798</v>
+        <v>184980.8601196799</v>
       </c>
       <c r="L4" t="n">
-        <v>184980.8601196798</v>
+        <v>184980.8601196799</v>
       </c>
       <c r="M4" t="n">
         <v>184980.8601196799</v>
@@ -26482,16 +26482,16 @@
         <v>61145.65326116129</v>
       </c>
       <c r="G5" t="n">
-        <v>64507.85721269289</v>
+        <v>64507.85721269288</v>
       </c>
       <c r="H5" t="n">
-        <v>64507.85721269289</v>
+        <v>64507.85721269288</v>
       </c>
       <c r="I5" t="n">
-        <v>71487.46055957112</v>
+        <v>71487.4605595711</v>
       </c>
       <c r="J5" t="n">
-        <v>77181.07883778412</v>
+        <v>77181.07883778409</v>
       </c>
       <c r="K5" t="n">
         <v>77181.07883778409</v>
@@ -26500,16 +26500,16 @@
         <v>77181.07883778409</v>
       </c>
       <c r="M5" t="n">
-        <v>77181.07883778409</v>
+        <v>77181.07883778407</v>
       </c>
       <c r="N5" t="n">
-        <v>77181.07883778409</v>
+        <v>77181.07883778407</v>
       </c>
       <c r="O5" t="n">
-        <v>77181.07883778409</v>
+        <v>77181.07883778407</v>
       </c>
       <c r="P5" t="n">
-        <v>77181.07883778408</v>
+        <v>77181.07883778407</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93860.78946789753</v>
+        <v>93856.3758900293</v>
       </c>
       <c r="C6" t="n">
-        <v>93860.78946789747</v>
+        <v>93856.37589002936</v>
       </c>
       <c r="D6" t="n">
-        <v>93860.78946789741</v>
+        <v>93856.3758900293</v>
       </c>
       <c r="E6" t="n">
-        <v>-517483.0307381735</v>
+        <v>-517689.3799720534</v>
       </c>
       <c r="F6" t="n">
-        <v>284334.2063123838</v>
+        <v>284127.8570785039</v>
       </c>
       <c r="G6" t="n">
-        <v>254079.4943238928</v>
+        <v>253990.8396776919</v>
       </c>
       <c r="H6" t="n">
-        <v>286074.202970663</v>
+        <v>285985.5483244612</v>
       </c>
       <c r="I6" t="n">
-        <v>258882.1813376368</v>
+        <v>258882.1813376367</v>
       </c>
       <c r="J6" t="n">
-        <v>220761.9296543121</v>
+        <v>220761.9296543118</v>
       </c>
       <c r="K6" t="n">
-        <v>292041.2557009277</v>
+        <v>292041.2557009271</v>
       </c>
       <c r="L6" t="n">
-        <v>260046.5470541574</v>
+        <v>260046.5470541576</v>
       </c>
       <c r="M6" t="n">
         <v>129351.7160062128</v>
@@ -26558,10 +26558,10 @@
         <v>292041.2557009275</v>
       </c>
       <c r="O6" t="n">
-        <v>259444.0285991319</v>
+        <v>259444.0285991315</v>
       </c>
       <c r="P6" t="n">
-        <v>292041.2557009272</v>
+        <v>292041.2557009273</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="F2" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="G2" t="n">
         <v>119.9363507505553</v>
@@ -26707,10 +26707,10 @@
         <v>119.9363507505553</v>
       </c>
       <c r="J2" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="K2" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="L2" t="n">
         <v>80.73991968570635</v>
@@ -26719,13 +26719,13 @@
         <v>80.73991968570643</v>
       </c>
       <c r="N2" t="n">
+        <v>80.73991968570648</v>
+      </c>
+      <c r="O2" t="n">
         <v>80.73991968570643</v>
       </c>
-      <c r="O2" t="n">
-        <v>80.73991968570644</v>
-      </c>
       <c r="P2" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="F3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="G3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="H3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="I3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="J3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="K3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="L3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="M3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="N3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="O3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="P3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531905</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>767.6328988007092</v>
       </c>
       <c r="J4" t="n">
-        <v>915.4753830343243</v>
+        <v>915.4753830343238</v>
       </c>
       <c r="K4" t="n">
+        <v>915.4753830343237</v>
+      </c>
+      <c r="L4" t="n">
         <v>915.475383034324</v>
       </c>
-      <c r="L4" t="n">
-        <v>915.4753830343238</v>
-      </c>
       <c r="M4" t="n">
-        <v>915.4753830343236</v>
+        <v>915.4753830343234</v>
       </c>
       <c r="N4" t="n">
-        <v>915.4753830343236</v>
+        <v>915.4753830343234</v>
       </c>
       <c r="O4" t="n">
-        <v>915.4753830343236</v>
+        <v>915.4753830343234</v>
       </c>
       <c r="P4" t="n">
-        <v>915.4753830343236</v>
+        <v>915.4753830343234</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.99338580846205</v>
+        <v>39.99338580846199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.74653387724418</v>
+        <v>40.74653387724439</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.99338580846209</v>
+        <v>39.99338580846197</v>
       </c>
       <c r="M2" t="n">
         <v>7.105427357601002e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>40.74653387724419</v>
+        <v>40.74653387724433</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>675.8005156531909</v>
+        <v>675.8005156531907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>114.7961076789181</v>
       </c>
       <c r="J4" t="n">
-        <v>147.8424842336151</v>
+        <v>147.8424842336146</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.8367911217908</v>
+        <v>652.8367911217905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.99338580846205</v>
+        <v>39.99338580846199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.74653387724418</v>
+        <v>40.74653387724439</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="C11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="D11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="E11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="F11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="G11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="H11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="I11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="T11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="U11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="V11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="W11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="X11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="C13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="D13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="E13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="F13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="G13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="H13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="I13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="J13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="K13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="L13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="M13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="N13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="O13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="P13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="R13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="S13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="T13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="U13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="V13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="W13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="X13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="C14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="D14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="E14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="F14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="G14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="H14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="I14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="T14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="U14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="V14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="W14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="X14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="C16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="D16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="E16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="F16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="G16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="H16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="I16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="J16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="K16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="L16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="M16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="N16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="O16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="P16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="R16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="S16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="T16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="U16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="V16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="W16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.94296494209324</v>
+        <v>79.9429649420933</v>
       </c>
     </row>
     <row r="17">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.9363507505545</v>
+        <v>119.9363507505553</v>
       </c>
       <c r="C19" t="n">
         <v>119.9363507505553</v>
@@ -28743,7 +28743,7 @@
         <v>118.8021453242951</v>
       </c>
       <c r="J19" t="n">
-        <v>7.200153719379912</v>
+        <v>7.200153719379941</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>118.8021453242951</v>
       </c>
       <c r="J22" t="n">
-        <v>7.200153719379912</v>
+        <v>7.200153719379941</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29211,13 +29211,13 @@
         <v>119.9363507505553</v>
       </c>
       <c r="H25" t="n">
-        <v>119.9363507505553</v>
+        <v>119.9363507505551</v>
       </c>
       <c r="I25" t="n">
         <v>118.8021453242951</v>
       </c>
       <c r="J25" t="n">
-        <v>7.200153719379912</v>
+        <v>7.200153719379941</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>119.9363507505553</v>
       </c>
       <c r="X25" t="n">
-        <v>119.9363507505547</v>
+        <v>119.9363507505553</v>
       </c>
       <c r="Y25" t="n">
         <v>119.9363507505553</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="C26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="D26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="E26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="F26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="G26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="H26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="I26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="T26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="U26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="V26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="W26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="X26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="C28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="D28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="E28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="F28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="G28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="H28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="I28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="J28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="K28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="L28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="M28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="N28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="O28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="P28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="R28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="S28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="T28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="U28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="V28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="W28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="X28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.73991968570623</v>
+        <v>80.73991968570638</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="C29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="D29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="E29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="F29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="G29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="H29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="I29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="T29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="U29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="V29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="W29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="X29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="C31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="D31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="E31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="F31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="G31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="H31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="I31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="J31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="K31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="L31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="M31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="N31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="O31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="P31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="R31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="S31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="T31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="U31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="V31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="W31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="X31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.73991968570631</v>
+        <v>80.73991968570638</v>
       </c>
     </row>
     <row r="32">
@@ -30165,7 +30165,7 @@
         <v>80.73991968570643</v>
       </c>
       <c r="J37" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570563</v>
       </c>
       <c r="K37" t="n">
         <v>80.73991968570643</v>
@@ -30180,7 +30180,7 @@
         <v>80.73991968570643</v>
       </c>
       <c r="O37" t="n">
-        <v>80.7399196857051</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="P37" t="n">
         <v>80.73991968570643</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="C38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="D38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="E38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="F38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="G38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="H38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="I38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="T38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="U38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="V38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="W38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="X38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="C40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="D40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="E40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="F40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="G40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="H40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="I40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="J40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="K40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570425</v>
       </c>
       <c r="L40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="M40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="N40" t="n">
-        <v>80.73991968570519</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="O40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="P40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="R40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="S40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="T40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="U40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="V40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="W40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="X40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.73991968570643</v>
+        <v>80.73991968570648</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="C41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="D41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="E41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="F41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="G41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="H41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="I41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="T41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="U41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="V41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="W41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="X41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="C43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="D43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="E43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="F43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="G43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="H43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="I43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="J43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="K43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="L43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570564</v>
       </c>
       <c r="M43" t="n">
-        <v>80.73991968570462</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="N43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="O43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="P43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="R43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="S43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="T43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="U43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="V43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="W43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="X43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.73991968570644</v>
+        <v>80.73991968570643</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="C44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="D44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="E44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="F44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="G44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="H44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="I44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="T44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="U44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="V44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="W44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="X44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="C46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="D46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="E46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="F46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="G46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="H46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="I46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="J46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="K46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="L46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="M46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="N46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="O46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="P46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="R46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="S46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="T46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="U46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="V46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="W46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="X46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.73991968570637</v>
+        <v>80.73991968570643</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H11" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I11" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J11" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K11" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L11" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M11" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N11" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O11" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P11" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q11" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R11" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S11" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T11" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H12" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I12" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J12" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K12" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L12" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M12" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N12" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O12" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P12" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R12" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S12" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T12" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H13" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I13" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J13" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K13" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L13" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M13" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N13" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O13" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P13" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q13" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R13" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S13" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T13" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H14" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I14" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J14" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K14" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L14" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M14" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N14" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O14" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P14" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q14" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R14" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S14" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T14" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H15" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I15" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J15" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K15" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L15" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M15" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N15" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O15" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P15" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R15" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S15" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T15" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H16" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I16" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J16" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K16" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L16" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M16" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N16" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O16" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P16" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q16" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R16" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S16" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T16" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H17" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I17" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J17" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K17" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L17" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M17" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N17" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O17" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P17" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q17" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R17" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S17" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T17" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H18" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I18" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J18" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K18" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L18" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M18" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N18" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O18" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P18" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R18" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S18" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T18" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H19" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I19" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J19" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K19" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L19" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M19" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N19" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O19" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P19" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q19" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R19" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S19" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T19" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H20" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I20" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J20" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K20" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L20" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M20" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N20" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O20" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P20" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q20" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R20" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S20" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T20" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H21" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J21" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K21" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L21" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M21" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N21" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O21" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P21" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R21" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S21" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T21" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H22" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I22" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J22" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K22" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L22" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M22" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N22" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O22" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P22" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q22" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R22" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S22" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T22" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H23" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I23" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J23" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K23" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L23" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M23" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N23" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O23" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P23" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q23" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R23" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S23" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T23" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H24" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I24" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J24" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K24" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L24" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M24" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N24" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O24" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P24" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R24" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S24" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T24" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H25" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I25" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J25" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K25" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L25" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M25" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N25" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O25" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P25" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q25" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R25" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S25" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T25" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H26" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I26" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J26" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K26" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L26" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M26" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N26" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O26" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P26" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q26" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R26" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S26" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T26" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H27" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I27" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J27" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K27" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L27" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M27" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N27" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O27" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P27" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R27" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S27" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T27" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H28" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I28" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J28" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K28" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L28" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M28" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N28" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O28" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P28" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q28" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R28" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S28" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T28" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H29" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I29" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J29" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K29" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L29" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M29" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N29" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O29" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P29" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q29" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R29" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S29" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T29" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H30" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I30" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J30" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K30" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L30" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M30" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N30" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O30" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P30" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R30" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S30" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T30" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H31" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I31" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J31" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K31" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L31" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M31" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N31" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O31" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P31" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q31" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R31" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S31" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T31" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H32" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I32" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J32" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K32" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L32" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M32" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N32" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O32" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P32" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q32" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R32" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S32" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T32" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H33" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I33" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J33" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K33" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L33" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M33" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N33" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O33" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P33" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R33" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S33" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T33" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H34" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I34" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J34" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K34" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L34" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M34" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N34" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O34" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P34" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q34" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R34" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S34" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T34" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H35" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I35" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J35" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K35" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L35" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M35" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N35" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O35" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P35" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q35" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R35" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S35" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T35" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H36" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I36" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J36" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K36" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L36" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M36" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N36" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O36" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P36" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q36" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R36" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S36" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T36" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H37" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I37" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J37" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K37" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L37" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M37" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N37" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O37" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P37" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q37" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R37" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S37" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T37" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H38" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I38" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J38" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K38" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L38" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M38" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N38" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O38" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P38" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q38" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R38" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S38" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T38" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H39" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I39" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J39" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K39" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L39" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M39" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N39" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O39" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P39" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q39" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R39" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S39" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T39" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H40" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I40" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J40" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K40" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L40" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M40" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N40" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O40" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P40" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q40" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R40" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S40" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T40" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575639</v>
       </c>
       <c r="H41" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646527</v>
       </c>
       <c r="I41" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J41" t="n">
         <v>230.5838151373669</v>
       </c>
       <c r="K41" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030937</v>
       </c>
       <c r="L41" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233805</v>
       </c>
       <c r="M41" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188475</v>
       </c>
       <c r="N41" t="n">
-        <v>484.7629166202532</v>
+        <v>484.7629166202531</v>
       </c>
       <c r="O41" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065791</v>
       </c>
       <c r="P41" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148679</v>
       </c>
       <c r="Q41" t="n">
         <v>293.3823233557528</v>
       </c>
       <c r="R41" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S41" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581744</v>
       </c>
       <c r="T41" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.2173428794060511</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>1.453608656310637</v>
       </c>
       <c r="H42" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I42" t="n">
-        <v>50.04749101771273</v>
+        <v>50.04749101771272</v>
       </c>
       <c r="J42" t="n">
         <v>137.3341406385414</v>
       </c>
       <c r="K42" t="n">
-        <v>234.7259206113541</v>
+        <v>234.725920611354</v>
       </c>
       <c r="L42" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397284</v>
       </c>
       <c r="M42" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309889</v>
       </c>
       <c r="N42" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954581</v>
       </c>
       <c r="O42" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003645</v>
       </c>
       <c r="P42" t="n">
-        <v>277.5754985897041</v>
+        <v>277.575498589704</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R42" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251482</v>
       </c>
       <c r="S42" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331378</v>
       </c>
       <c r="T42" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181906</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148929</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H43" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I43" t="n">
-        <v>36.64832960296322</v>
+        <v>36.6483296029632</v>
       </c>
       <c r="J43" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729283</v>
       </c>
       <c r="K43" t="n">
         <v>141.5857473778324</v>
       </c>
       <c r="L43" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M43" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902945</v>
       </c>
       <c r="N43" t="n">
-        <v>186.4877062293471</v>
+        <v>186.487706229347</v>
       </c>
       <c r="O43" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P43" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q43" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R43" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279803</v>
       </c>
       <c r="S43" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T43" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622943</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.06647218186752703</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.71678599257564</v>
+        <v>2.716785992575638</v>
       </c>
       <c r="H44" t="n">
-        <v>27.82328454646528</v>
+        <v>27.82328454646526</v>
       </c>
       <c r="I44" t="n">
-        <v>104.7388919787725</v>
+        <v>104.7388919787724</v>
       </c>
       <c r="J44" t="n">
-        <v>230.5838151373669</v>
+        <v>230.5838151373668</v>
       </c>
       <c r="K44" t="n">
-        <v>345.5853662030938</v>
+        <v>345.5853662030936</v>
       </c>
       <c r="L44" t="n">
-        <v>428.7292055233806</v>
+        <v>428.7292055233804</v>
       </c>
       <c r="M44" t="n">
-        <v>477.0438484188477</v>
+        <v>477.0438484188473</v>
       </c>
       <c r="N44" t="n">
-        <v>484.7629166202532</v>
+        <v>484.762916620253</v>
       </c>
       <c r="O44" t="n">
-        <v>457.7478759065792</v>
+        <v>457.7478759065789</v>
       </c>
       <c r="P44" t="n">
-        <v>390.677221714868</v>
+        <v>390.6772217148678</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.3823233557528</v>
+        <v>293.3823233557526</v>
       </c>
       <c r="R44" t="n">
-        <v>170.6583081061297</v>
+        <v>170.6583081061296</v>
       </c>
       <c r="S44" t="n">
-        <v>61.90876080581746</v>
+        <v>61.90876080581742</v>
       </c>
       <c r="T44" t="n">
-        <v>11.89273068249987</v>
+        <v>11.89273068249986</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2173428794060512</v>
+        <v>0.217342879406051</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.453608656310637</v>
+        <v>1.453608656310636</v>
       </c>
       <c r="H45" t="n">
-        <v>14.03879939121063</v>
+        <v>14.03879939121062</v>
       </c>
       <c r="I45" t="n">
-        <v>50.04749101771273</v>
+        <v>50.0474910177127</v>
       </c>
       <c r="J45" t="n">
-        <v>137.3341406385414</v>
+        <v>137.3341406385413</v>
       </c>
       <c r="K45" t="n">
-        <v>234.7259206113541</v>
+        <v>234.7259206113539</v>
       </c>
       <c r="L45" t="n">
-        <v>315.6179672397285</v>
+        <v>315.6179672397283</v>
       </c>
       <c r="M45" t="n">
-        <v>368.311281030989</v>
+        <v>368.3112810309888</v>
       </c>
       <c r="N45" t="n">
-        <v>378.0593846954582</v>
+        <v>378.0593846954579</v>
       </c>
       <c r="O45" t="n">
-        <v>345.8504771003646</v>
+        <v>345.8504771003643</v>
       </c>
       <c r="P45" t="n">
-        <v>277.5754985897041</v>
+        <v>277.5754985897038</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.5518698827403</v>
+        <v>185.5518698827402</v>
       </c>
       <c r="R45" t="n">
-        <v>90.25124622251485</v>
+        <v>90.25124622251479</v>
       </c>
       <c r="S45" t="n">
-        <v>27.00014324331379</v>
+        <v>27.00014324331377</v>
       </c>
       <c r="T45" t="n">
-        <v>5.859062961181908</v>
+        <v>5.859062961181904</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09563214844148932</v>
+        <v>0.09563214844148926</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.218656667571328</v>
+        <v>1.218656667571327</v>
       </c>
       <c r="H46" t="n">
         <v>10.8349656444069</v>
       </c>
       <c r="I46" t="n">
-        <v>36.64832960296322</v>
+        <v>36.64832960296319</v>
       </c>
       <c r="J46" t="n">
-        <v>86.15902639729286</v>
+        <v>86.15902639729281</v>
       </c>
       <c r="K46" t="n">
-        <v>141.5857473778324</v>
+        <v>141.5857473778323</v>
       </c>
       <c r="L46" t="n">
-        <v>181.1810103769227</v>
+        <v>181.1810103769226</v>
       </c>
       <c r="M46" t="n">
-        <v>191.0299719902946</v>
+        <v>191.0299719902944</v>
       </c>
       <c r="N46" t="n">
-        <v>186.4877062293471</v>
+        <v>186.4877062293469</v>
       </c>
       <c r="O46" t="n">
-        <v>172.2515806127183</v>
+        <v>172.2515806127182</v>
       </c>
       <c r="P46" t="n">
-        <v>147.3909845942631</v>
+        <v>147.390984594263</v>
       </c>
       <c r="Q46" t="n">
         <v>102.0458778636318</v>
       </c>
       <c r="R46" t="n">
-        <v>54.79523525279805</v>
+        <v>54.79523525279802</v>
       </c>
       <c r="S46" t="n">
-        <v>21.23786210667486</v>
+        <v>21.23786210667485</v>
       </c>
       <c r="T46" t="n">
-        <v>5.206987579622945</v>
+        <v>5.206987579622941</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06647218186752704</v>
+        <v>0.066472181867527</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>218.6345257827544</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K11" t="n">
-        <v>449.640927729278</v>
+        <v>125.4955151581132</v>
       </c>
       <c r="L11" t="n">
-        <v>192.9627905533934</v>
+        <v>192.9627905533933</v>
       </c>
       <c r="M11" t="n">
-        <v>246.697615191575</v>
+        <v>652.8367911217911</v>
       </c>
       <c r="N11" t="n">
-        <v>255.3498530236623</v>
+        <v>652.8367911217911</v>
       </c>
       <c r="O11" t="n">
-        <v>436.2604596835032</v>
+        <v>227.6496644848923</v>
       </c>
       <c r="P11" t="n">
-        <v>481.2429341310811</v>
+        <v>210.3730278725122</v>
       </c>
       <c r="Q11" t="n">
         <v>283.391624141208</v>
       </c>
       <c r="R11" t="n">
-        <v>20.78919016498</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K12" t="n">
-        <v>96.88448163699508</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L12" t="n">
-        <v>455.5783990776495</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M12" t="n">
-        <v>652.8367911217911</v>
+        <v>371.4455710603413</v>
       </c>
       <c r="N12" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O12" t="n">
-        <v>597.1165519326497</v>
+        <v>203.2542326559201</v>
       </c>
       <c r="P12" t="n">
-        <v>143.6010911753738</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.74281122271333</v>
+        <v>72.74281122271336</v>
       </c>
       <c r="K13" t="n">
         <v>199.2592204940428</v>
@@ -35577,7 +35577,7 @@
         <v>310.5568138942284</v>
       </c>
       <c r="N13" t="n">
-        <v>310.5628435506689</v>
+        <v>310.5628435506688</v>
       </c>
       <c r="O13" t="n">
         <v>276.7796734688512</v>
@@ -35586,7 +35586,7 @@
         <v>224.6125088012498</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.82679955403069</v>
+        <v>95.8267995540307</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.53791061068063</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K14" t="n">
-        <v>446.5481568372172</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L14" t="n">
-        <v>192.9627905533934</v>
+        <v>192.9627905533933</v>
       </c>
       <c r="M14" t="n">
-        <v>246.697615191575</v>
+        <v>246.6976151915748</v>
       </c>
       <c r="N14" t="n">
-        <v>255.3498530236623</v>
+        <v>255.3498530236621</v>
       </c>
       <c r="O14" t="n">
-        <v>608.4498457476378</v>
+        <v>457.0496498484841</v>
       </c>
       <c r="P14" t="n">
-        <v>481.2429341310811</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q14" t="n">
         <v>283.391624141208</v>
       </c>
       <c r="R14" t="n">
-        <v>20.78919016498</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K15" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L15" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M15" t="n">
-        <v>226.1772471089707</v>
+        <v>296.0460204235488</v>
       </c>
       <c r="N15" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O15" t="n">
-        <v>348.5225566072901</v>
+        <v>597.1165519326496</v>
       </c>
       <c r="P15" t="n">
-        <v>462.063859815311</v>
+        <v>143.6010911753737</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.74281122271333</v>
+        <v>72.74281122271336</v>
       </c>
       <c r="K16" t="n">
         <v>199.2592204940428</v>
@@ -35814,7 +35814,7 @@
         <v>310.5568138942284</v>
       </c>
       <c r="N16" t="n">
-        <v>310.5628435506689</v>
+        <v>310.5628435506688</v>
       </c>
       <c r="O16" t="n">
         <v>276.7796734688512</v>
@@ -35823,7 +35823,7 @@
         <v>224.6125088012498</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.82679955403069</v>
+        <v>95.8267995540307</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>49.53791061068063</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K17" t="n">
-        <v>449.640927729278</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L17" t="n">
-        <v>610.6240051038438</v>
+        <v>192.9627905533933</v>
       </c>
       <c r="M17" t="n">
-        <v>246.697615191575</v>
+        <v>246.6976151915748</v>
       </c>
       <c r="N17" t="n">
-        <v>255.3498530236623</v>
+        <v>255.3498530236621</v>
       </c>
       <c r="O17" t="n">
-        <v>608.4498457476378</v>
+        <v>608.4498457476377</v>
       </c>
       <c r="P17" t="n">
-        <v>159.4442259595985</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.2255370351593</v>
+        <v>131.9914282420541</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.49651397187472</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K18" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L18" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M18" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N18" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O18" t="n">
-        <v>597.1165519326497</v>
+        <v>348.5225566072908</v>
       </c>
       <c r="P18" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.1444235476173</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>119.3162555519496</v>
+        <v>119.3162555519495</v>
       </c>
       <c r="L19" t="n">
         <v>208.7710356372388</v>
       </c>
       <c r="M19" t="n">
-        <v>230.6138489521352</v>
+        <v>230.6138489521351</v>
       </c>
       <c r="N19" t="n">
         <v>230.6198786085756</v>
@@ -36057,10 +36057,10 @@
         <v>196.8367085267579</v>
       </c>
       <c r="P19" t="n">
-        <v>144.6695438591566</v>
+        <v>144.6695438591565</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.88383461193744</v>
+        <v>15.8838346119374</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>218.6345257827544</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K20" t="n">
-        <v>260.7647848297602</v>
+        <v>125.4955151581132</v>
       </c>
       <c r="L20" t="n">
-        <v>192.9627905533934</v>
+        <v>192.9627905533933</v>
       </c>
       <c r="M20" t="n">
-        <v>246.697615191575</v>
+        <v>652.8367911217911</v>
       </c>
       <c r="N20" t="n">
         <v>652.8367911217911</v>
       </c>
       <c r="O20" t="n">
-        <v>227.6496644848925</v>
+        <v>227.6496644848923</v>
       </c>
       <c r="P20" t="n">
-        <v>481.2429341310811</v>
+        <v>210.3730278725122</v>
       </c>
       <c r="Q20" t="n">
         <v>283.391624141208</v>
       </c>
       <c r="R20" t="n">
-        <v>20.78919016498</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K21" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L21" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M21" t="n">
-        <v>371.4455710603406</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N21" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O21" t="n">
-        <v>203.2542326559202</v>
+        <v>348.5225566072908</v>
       </c>
       <c r="P21" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q21" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>119.3162555519496</v>
+        <v>119.3162555519495</v>
       </c>
       <c r="L22" t="n">
         <v>208.7710356372388</v>
       </c>
       <c r="M22" t="n">
-        <v>230.6138489521352</v>
+        <v>230.6138489521351</v>
       </c>
       <c r="N22" t="n">
         <v>230.6198786085756</v>
@@ -36294,10 +36294,10 @@
         <v>196.8367085267579</v>
       </c>
       <c r="P22" t="n">
-        <v>144.6695438591566</v>
+        <v>144.6695438591565</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.88383461193744</v>
+        <v>15.8838346119374</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>49.53791061068063</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K23" t="n">
-        <v>279.1904028424543</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L23" t="n">
-        <v>610.6240051038438</v>
+        <v>406.6062564019594</v>
       </c>
       <c r="M23" t="n">
-        <v>246.697615191575</v>
+        <v>696.2111486844072</v>
       </c>
       <c r="N23" t="n">
-        <v>692.6967774356465</v>
+        <v>255.3498530236621</v>
       </c>
       <c r="O23" t="n">
-        <v>608.4498457476378</v>
+        <v>227.6496644848923</v>
       </c>
       <c r="P23" t="n">
-        <v>481.2429341310811</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.07663348130333</v>
+        <v>283.391624141208</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K24" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L24" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M24" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N24" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O24" t="n">
-        <v>348.5225566072905</v>
+        <v>348.5225566072908</v>
       </c>
       <c r="P24" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q24" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>119.3162555519496</v>
+        <v>119.3162555519495</v>
       </c>
       <c r="L25" t="n">
         <v>208.7710356372388</v>
       </c>
       <c r="M25" t="n">
-        <v>230.6138489521352</v>
+        <v>230.6138489521351</v>
       </c>
       <c r="N25" t="n">
         <v>230.6198786085756</v>
@@ -36531,10 +36531,10 @@
         <v>196.8367085267579</v>
       </c>
       <c r="P25" t="n">
-        <v>144.6695438591566</v>
+        <v>144.6695438591565</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.88383461193744</v>
+        <v>15.8838346119374</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>49.53791061068063</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K26" t="n">
-        <v>449.640927729278</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L26" t="n">
-        <v>610.6240051038438</v>
+        <v>610.6240051038437</v>
       </c>
       <c r="M26" t="n">
-        <v>696.2111486844075</v>
+        <v>696.2111486844072</v>
       </c>
       <c r="N26" t="n">
-        <v>692.6967774356465</v>
+        <v>692.6967774356463</v>
       </c>
       <c r="O26" t="n">
-        <v>608.4498457476378</v>
+        <v>514.2693929355366</v>
       </c>
       <c r="P26" t="n">
-        <v>446.675378979476</v>
+        <v>159.4442259595984</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.07663348130333</v>
+        <v>283.391624141208</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K27" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L27" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M27" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N27" t="n">
-        <v>246.7176726121249</v>
+        <v>391.9859965634957</v>
       </c>
       <c r="O27" t="n">
-        <v>348.5225566072905</v>
+        <v>203.2542326559201</v>
       </c>
       <c r="P27" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53976596632631</v>
+        <v>73.53976596632644</v>
       </c>
       <c r="K28" t="n">
-        <v>200.0561752376558</v>
+        <v>200.0561752376559</v>
       </c>
       <c r="L28" t="n">
-        <v>289.5109553229451</v>
+        <v>289.5109553229452</v>
       </c>
       <c r="M28" t="n">
-        <v>311.3537686378414</v>
+        <v>311.3537686378415</v>
       </c>
       <c r="N28" t="n">
-        <v>311.3597982942819</v>
+        <v>311.359798294282</v>
       </c>
       <c r="O28" t="n">
         <v>277.5766282124642</v>
       </c>
       <c r="P28" t="n">
-        <v>225.4094635448628</v>
+        <v>225.4094635448629</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.62375429764367</v>
+        <v>96.62375429764379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>218.6345257827544</v>
+        <v>49.53791061068057</v>
       </c>
       <c r="K29" t="n">
-        <v>449.640927729278</v>
+        <v>415.0733725776715</v>
       </c>
       <c r="L29" t="n">
-        <v>610.6240051038438</v>
+        <v>610.6240051038437</v>
       </c>
       <c r="M29" t="n">
-        <v>696.2111486844075</v>
+        <v>696.2111486844072</v>
       </c>
       <c r="N29" t="n">
-        <v>692.6967774356465</v>
+        <v>692.6967774356463</v>
       </c>
       <c r="O29" t="n">
-        <v>608.4498457476378</v>
+        <v>608.4498457476377</v>
       </c>
       <c r="P29" t="n">
-        <v>159.4442259595985</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q29" t="n">
-        <v>189.2111713291058</v>
+        <v>71.07663348130328</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K30" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L30" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M30" t="n">
-        <v>226.1772471089707</v>
+        <v>371.4455710603415</v>
       </c>
       <c r="N30" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O30" t="n">
-        <v>348.5225566072905</v>
+        <v>203.2542326559201</v>
       </c>
       <c r="P30" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q30" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.5397659663264</v>
+        <v>73.53976596632644</v>
       </c>
       <c r="K31" t="n">
         <v>200.0561752376559</v>
@@ -37008,7 +37008,7 @@
         <v>225.4094635448629</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.62375429764376</v>
+        <v>96.62375429764379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>49.53791061068063</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K32" t="n">
-        <v>394.2841824126911</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L32" t="n">
-        <v>610.6240051038438</v>
+        <v>610.6240051038437</v>
       </c>
       <c r="M32" t="n">
-        <v>696.2111486844075</v>
+        <v>696.2111486844072</v>
       </c>
       <c r="N32" t="n">
-        <v>692.6967774356465</v>
+        <v>692.6967774356463</v>
       </c>
       <c r="O32" t="n">
-        <v>608.4498457476378</v>
+        <v>383.9964852589793</v>
       </c>
       <c r="P32" t="n">
-        <v>481.2429341310811</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.07663348130333</v>
+        <v>71.07663348130328</v>
       </c>
       <c r="R32" t="n">
-        <v>20.78919016498</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K33" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L33" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M33" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N33" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O33" t="n">
-        <v>348.5225566072905</v>
+        <v>348.522556607291</v>
       </c>
       <c r="P33" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q33" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53976596632644</v>
+        <v>73.53976596632641</v>
       </c>
       <c r="K34" t="n">
         <v>200.0561752376559</v>
@@ -37233,19 +37233,19 @@
         <v>289.5109553229452</v>
       </c>
       <c r="M34" t="n">
-        <v>311.3537686378415</v>
+        <v>311.3537686378414</v>
       </c>
       <c r="N34" t="n">
-        <v>311.359798294282</v>
+        <v>311.3597982942819</v>
       </c>
       <c r="O34" t="n">
-        <v>277.5766282124643</v>
+        <v>277.5766282124642</v>
       </c>
       <c r="P34" t="n">
         <v>225.4094635448629</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.6237542976438</v>
+        <v>96.62375429764376</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>218.6345257827544</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K35" t="n">
-        <v>449.640927729278</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L35" t="n">
-        <v>610.6240051038438</v>
+        <v>610.6240051038437</v>
       </c>
       <c r="M35" t="n">
-        <v>280.2319877008216</v>
+        <v>259.4427975358416</v>
       </c>
       <c r="N35" t="n">
-        <v>692.6967774356465</v>
+        <v>692.6967774356463</v>
       </c>
       <c r="O35" t="n">
-        <v>608.4498457476378</v>
+        <v>608.4498457476377</v>
       </c>
       <c r="P35" t="n">
-        <v>481.2429341310811</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q35" t="n">
         <v>283.391624141208</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K36" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L36" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M36" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N36" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O36" t="n">
-        <v>348.5225566072905</v>
+        <v>348.522556607291</v>
       </c>
       <c r="P36" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q36" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.53976596632651</v>
+        <v>73.53976596632569</v>
       </c>
       <c r="K37" t="n">
         <v>200.056175237656</v>
       </c>
       <c r="L37" t="n">
-        <v>289.5109553229453</v>
+        <v>289.5109553229452</v>
       </c>
       <c r="M37" t="n">
-        <v>311.3537686378416</v>
+        <v>311.3537686378415</v>
       </c>
       <c r="N37" t="n">
-        <v>311.3597982942821</v>
+        <v>311.359798294282</v>
       </c>
       <c r="O37" t="n">
-        <v>277.576628212463</v>
+        <v>277.5766282124643</v>
       </c>
       <c r="P37" t="n">
-        <v>225.409463544863</v>
+        <v>225.4094635448629</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.62375429764387</v>
+        <v>96.62375429764383</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>218.6345257827544</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K38" t="n">
-        <v>125.4955151581133</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L38" t="n">
-        <v>610.6240051038438</v>
+        <v>610.6240051038437</v>
       </c>
       <c r="M38" t="n">
-        <v>696.2111486844075</v>
+        <v>696.2111486844072</v>
       </c>
       <c r="N38" t="n">
-        <v>692.6967774356465</v>
+        <v>255.9284262870807</v>
       </c>
       <c r="O38" t="n">
-        <v>608.4498457476378</v>
+        <v>608.4498457476377</v>
       </c>
       <c r="P38" t="n">
-        <v>389.40918571866</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q38" t="n">
         <v>283.391624141208</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K39" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L39" t="n">
-        <v>177.0635874598543</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M39" t="n">
-        <v>691.8823108589706</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N39" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O39" t="n">
-        <v>253.6578381607498</v>
+        <v>348.522556607291</v>
       </c>
       <c r="P39" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q39" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.53976596632651</v>
+        <v>73.53976596632654</v>
       </c>
       <c r="K40" t="n">
-        <v>200.056175237656</v>
+        <v>200.0561752376538</v>
       </c>
       <c r="L40" t="n">
         <v>289.5109553229453</v>
@@ -37710,7 +37710,7 @@
         <v>311.3537686378416</v>
       </c>
       <c r="N40" t="n">
-        <v>311.3597982942808</v>
+        <v>311.359798294282</v>
       </c>
       <c r="O40" t="n">
         <v>277.5766282124644</v>
@@ -37719,7 +37719,7 @@
         <v>225.409463544863</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.62375429764387</v>
+        <v>96.62375429764388</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>218.6345257827544</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K41" t="n">
-        <v>449.640927729278</v>
+        <v>449.6409277292779</v>
       </c>
       <c r="L41" t="n">
-        <v>610.6240051038438</v>
+        <v>192.9627905533933</v>
       </c>
       <c r="M41" t="n">
-        <v>696.2111486844075</v>
+        <v>696.2111486844072</v>
       </c>
       <c r="N41" t="n">
-        <v>657.5177977148057</v>
+        <v>673.5896408375311</v>
       </c>
       <c r="O41" t="n">
-        <v>227.6496644848925</v>
+        <v>608.4498457476377</v>
       </c>
       <c r="P41" t="n">
-        <v>481.2429341310811</v>
+        <v>481.242934131081</v>
       </c>
       <c r="Q41" t="n">
         <v>283.391624141208</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>20.78919016497994</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122835</v>
       </c>
       <c r="K42" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L42" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633134</v>
       </c>
       <c r="M42" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089706</v>
       </c>
       <c r="N42" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121248</v>
       </c>
       <c r="O42" t="n">
-        <v>348.5225566072905</v>
+        <v>348.522556607291</v>
       </c>
       <c r="P42" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153109</v>
       </c>
       <c r="Q42" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325678</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.53976596632653</v>
+        <v>73.53976596632648</v>
       </c>
       <c r="K43" t="n">
         <v>200.056175237656</v>
       </c>
       <c r="L43" t="n">
-        <v>289.5109553229453</v>
+        <v>289.5109553229444</v>
       </c>
       <c r="M43" t="n">
-        <v>311.3537686378398</v>
+        <v>311.3537686378415</v>
       </c>
       <c r="N43" t="n">
-        <v>311.3597982942821</v>
+        <v>311.359798294282</v>
       </c>
       <c r="O43" t="n">
-        <v>277.5766282124644</v>
+        <v>277.5766282124643</v>
       </c>
       <c r="P43" t="n">
-        <v>225.409463544863</v>
+        <v>225.4094635448629</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.62375429764388</v>
+        <v>96.62375429764383</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>218.6345257827544</v>
+        <v>218.6345257827543</v>
       </c>
       <c r="K44" t="n">
-        <v>449.640927729278</v>
+        <v>449.6409277292778</v>
       </c>
       <c r="L44" t="n">
-        <v>610.6240051038438</v>
+        <v>610.6240051038435</v>
       </c>
       <c r="M44" t="n">
-        <v>661.032168963567</v>
+        <v>280.2319877008223</v>
       </c>
       <c r="N44" t="n">
-        <v>692.6967774356465</v>
+        <v>692.6967774356463</v>
       </c>
       <c r="O44" t="n">
-        <v>227.6496644848925</v>
+        <v>608.4498457476375</v>
       </c>
       <c r="P44" t="n">
-        <v>481.2429341310811</v>
+        <v>481.2429341310809</v>
       </c>
       <c r="Q44" t="n">
-        <v>283.391624141208</v>
+        <v>283.3916241412078</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>136.5875493122836</v>
+        <v>136.5875493122834</v>
       </c>
       <c r="K45" t="n">
-        <v>361.3497186495737</v>
+        <v>361.3497186495736</v>
       </c>
       <c r="L45" t="n">
-        <v>547.9039327633135</v>
+        <v>547.9039327633133</v>
       </c>
       <c r="M45" t="n">
-        <v>226.1772471089707</v>
+        <v>226.1772471089704</v>
       </c>
       <c r="N45" t="n">
-        <v>246.7176726121249</v>
+        <v>246.7176726121246</v>
       </c>
       <c r="O45" t="n">
-        <v>348.5225566072905</v>
+        <v>348.5225566072919</v>
       </c>
       <c r="P45" t="n">
-        <v>462.063859815311</v>
+        <v>462.0638598153108</v>
       </c>
       <c r="Q45" t="n">
-        <v>255.6473835325679</v>
+        <v>255.6473835325677</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>289.5109553229452</v>
       </c>
       <c r="M46" t="n">
-        <v>311.3537686378415</v>
+        <v>311.3537686378414</v>
       </c>
       <c r="N46" t="n">
-        <v>311.359798294282</v>
+        <v>311.3597982942819</v>
       </c>
       <c r="O46" t="n">
-        <v>277.5766282124643</v>
+        <v>277.5766282124642</v>
       </c>
       <c r="P46" t="n">
         <v>225.4094635448629</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.62375429764381</v>
+        <v>96.6237542976438</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
